--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_100ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_100ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -5527,28 +5527,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6597.011582971209</v>
+        <v>6763.558078898482</v>
       </c>
       <c r="AB2" t="n">
-        <v>9026.322287432222</v>
+        <v>9254.198550672767</v>
       </c>
       <c r="AC2" t="n">
-        <v>8164.862756842244</v>
+        <v>8370.990829345448</v>
       </c>
       <c r="AD2" t="n">
-        <v>6597011.582971209</v>
+        <v>6763558.078898482</v>
       </c>
       <c r="AE2" t="n">
-        <v>9026322.287432222</v>
+        <v>9254198.550672768</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.296371891132794e-07</v>
+        <v>1.064432908401383e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.17777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>8164862.756842244</v>
+        <v>8370990.829345449</v>
       </c>
     </row>
     <row r="3">
@@ -5633,28 +5633,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2232.103857344428</v>
+        <v>2315.419820489627</v>
       </c>
       <c r="AB3" t="n">
-        <v>3054.062971091098</v>
+        <v>3168.059547507245</v>
       </c>
       <c r="AC3" t="n">
-        <v>2762.587487534351</v>
+        <v>2865.704390692536</v>
       </c>
       <c r="AD3" t="n">
-        <v>2232103.857344429</v>
+        <v>2315419.820489626</v>
       </c>
       <c r="AE3" t="n">
-        <v>3054062.971091099</v>
+        <v>3168059.547507246</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.181663862793689e-06</v>
+        <v>1.99766138972456e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.14583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2762587.487534351</v>
+        <v>2865704.390692535</v>
       </c>
     </row>
     <row r="4">
@@ -5739,28 +5739,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1720.387394534849</v>
+        <v>1803.617927316924</v>
       </c>
       <c r="AB4" t="n">
-        <v>2353.909931337806</v>
+        <v>2467.7896181622</v>
       </c>
       <c r="AC4" t="n">
-        <v>2129.256071224263</v>
+        <v>2232.267240569281</v>
       </c>
       <c r="AD4" t="n">
-        <v>1720387.394534849</v>
+        <v>1803617.927316924</v>
       </c>
       <c r="AE4" t="n">
-        <v>2353909.931337805</v>
+        <v>2467789.618162199</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.382400835041111e-06</v>
+        <v>2.337017201114807e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.65694444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>2129256.071224263</v>
+        <v>2232267.240569281</v>
       </c>
     </row>
     <row r="5">
@@ -5845,28 +5845,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1520.446075953374</v>
+        <v>1593.347465385439</v>
       </c>
       <c r="AB5" t="n">
-        <v>2080.341398466196</v>
+        <v>2180.088295669463</v>
       </c>
       <c r="AC5" t="n">
-        <v>1881.796535174072</v>
+        <v>1972.023728503909</v>
       </c>
       <c r="AD5" t="n">
-        <v>1520446.075953374</v>
+        <v>1593347.465385439</v>
       </c>
       <c r="AE5" t="n">
-        <v>2080341.398466196</v>
+        <v>2180088.295669463</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.489188235975059e-06</v>
+        <v>2.517546600778804e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.60555555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>1881796.535174072</v>
+        <v>1972023.728503909</v>
       </c>
     </row>
     <row r="6">
@@ -5951,28 +5951,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1413.968783380699</v>
+        <v>1476.455778116735</v>
       </c>
       <c r="AB6" t="n">
-        <v>1934.654469321643</v>
+        <v>2020.151932251135</v>
       </c>
       <c r="AC6" t="n">
-        <v>1750.013762074186</v>
+        <v>1827.35146713813</v>
       </c>
       <c r="AD6" t="n">
-        <v>1413968.783380699</v>
+        <v>1476455.778116735</v>
       </c>
       <c r="AE6" t="n">
-        <v>1934654.469321643</v>
+        <v>2020151.932251135</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.556732725910057e-06</v>
+        <v>2.631733912314912e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.01527777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>1750013.762074186</v>
+        <v>1827351.46713813</v>
       </c>
     </row>
     <row r="7">
@@ -6057,28 +6057,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1336.541631076468</v>
+        <v>1409.357679653963</v>
       </c>
       <c r="AB7" t="n">
-        <v>1828.715223694113</v>
+        <v>1928.345353775183</v>
       </c>
       <c r="AC7" t="n">
-        <v>1654.185209362683</v>
+        <v>1744.306779660581</v>
       </c>
       <c r="AD7" t="n">
-        <v>1336541.631076468</v>
+        <v>1409357.679653963</v>
       </c>
       <c r="AE7" t="n">
-        <v>1828715.223694113</v>
+        <v>1928345.353775183</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.601519245154213e-06</v>
+        <v>2.707447745234102e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.65277777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>1654185.209362683</v>
+        <v>1744306.779660581</v>
       </c>
     </row>
     <row r="8">
@@ -6163,28 +6163,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1289.283885538534</v>
+        <v>1351.685539419999</v>
       </c>
       <c r="AB8" t="n">
-        <v>1764.055091384521</v>
+        <v>1849.435787191815</v>
       </c>
       <c r="AC8" t="n">
-        <v>1595.696149329652</v>
+        <v>1672.928231361658</v>
       </c>
       <c r="AD8" t="n">
-        <v>1289283.885538534</v>
+        <v>1351685.539419999</v>
       </c>
       <c r="AE8" t="n">
-        <v>1764055.091384521</v>
+        <v>1849435.787191815</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.633467934777894e-06</v>
+        <v>2.761458590215543e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.40416666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1595696.149329652</v>
+        <v>1672928.231361658</v>
       </c>
     </row>
     <row r="9">
@@ -6269,28 +6269,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1250.185725587183</v>
+        <v>1312.587379468648</v>
       </c>
       <c r="AB9" t="n">
-        <v>1710.559264050002</v>
+        <v>1795.939959857296</v>
       </c>
       <c r="AC9" t="n">
-        <v>1547.305888674075</v>
+        <v>1624.53797070608</v>
       </c>
       <c r="AD9" t="n">
-        <v>1250185.725587183</v>
+        <v>1312587.379468648</v>
       </c>
       <c r="AE9" t="n">
-        <v>1710559.264050002</v>
+        <v>1795939.959857296</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.659727131728864e-06</v>
+        <v>2.805851065542756e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.20694444444444</v>
       </c>
       <c r="AH9" t="n">
-        <v>1547305.888674075</v>
+        <v>1624537.97070608</v>
       </c>
     </row>
     <row r="10">
@@ -6375,28 +6375,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1218.586004409423</v>
+        <v>1280.987658290888</v>
       </c>
       <c r="AB10" t="n">
-        <v>1667.323131453282</v>
+        <v>1752.703827260576</v>
       </c>
       <c r="AC10" t="n">
-        <v>1508.196151890092</v>
+        <v>1585.428233922097</v>
       </c>
       <c r="AD10" t="n">
-        <v>1218586.004409423</v>
+        <v>1280987.658290888</v>
       </c>
       <c r="AE10" t="n">
-        <v>1667323.131453282</v>
+        <v>1752703.827260576</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.67825445402205e-06</v>
+        <v>2.837172423134734e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.07222222222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>1508196.151890092</v>
+        <v>1585428.233922097</v>
       </c>
     </row>
     <row r="11">
@@ -6481,28 +6481,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1179.668401347555</v>
+        <v>1252.399109070477</v>
       </c>
       <c r="AB11" t="n">
-        <v>1614.07435002056</v>
+        <v>1713.587712979432</v>
       </c>
       <c r="AC11" t="n">
-        <v>1460.029359422176</v>
+        <v>1550.045306688135</v>
       </c>
       <c r="AD11" t="n">
-        <v>1179668.401347555</v>
+        <v>1252399.109070477</v>
       </c>
       <c r="AE11" t="n">
-        <v>1614074.35002056</v>
+        <v>1713587.712979432</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.695322932040181e-06</v>
+        <v>2.866027532097422e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.95138888888889</v>
       </c>
       <c r="AH11" t="n">
-        <v>1460029.359422175</v>
+        <v>1550045.306688135</v>
       </c>
     </row>
     <row r="12">
@@ -6587,28 +6587,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1155.783801775225</v>
+        <v>1218.27070700271</v>
       </c>
       <c r="AB12" t="n">
-        <v>1581.394387171533</v>
+        <v>1666.891727631477</v>
       </c>
       <c r="AC12" t="n">
-        <v>1430.468326360844</v>
+        <v>1507.805920643561</v>
       </c>
       <c r="AD12" t="n">
-        <v>1155783.801775225</v>
+        <v>1218270.70700271</v>
       </c>
       <c r="AE12" t="n">
-        <v>1581394.387171533</v>
+        <v>1666891.727631477</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.709181952653193e-06</v>
+        <v>2.889456894075673e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.85416666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1430468.326360844</v>
+        <v>1507805.920643561</v>
       </c>
     </row>
     <row r="13">
@@ -6693,28 +6693,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1134.924146099039</v>
+        <v>1197.411051326524</v>
       </c>
       <c r="AB13" t="n">
-        <v>1552.853286012316</v>
+        <v>1638.350626472259</v>
       </c>
       <c r="AC13" t="n">
-        <v>1404.651147838575</v>
+        <v>1481.988742121293</v>
       </c>
       <c r="AD13" t="n">
-        <v>1134924.146099039</v>
+        <v>1197411.051326524</v>
       </c>
       <c r="AE13" t="n">
-        <v>1552853.286012316</v>
+        <v>1638350.626472259</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.719393862578571e-06</v>
+        <v>2.9067206344807e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11.78472222222222</v>
       </c>
       <c r="AH13" t="n">
-        <v>1404651.147838575</v>
+        <v>1481988.742121293</v>
       </c>
     </row>
     <row r="14">
@@ -6799,28 +6799,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1112.572568594092</v>
+        <v>1175.059473821577</v>
       </c>
       <c r="AB14" t="n">
-        <v>1522.270871588042</v>
+        <v>1607.768212047985</v>
       </c>
       <c r="AC14" t="n">
-        <v>1376.987476124265</v>
+        <v>1454.325070406983</v>
       </c>
       <c r="AD14" t="n">
-        <v>1112572.568594092</v>
+        <v>1175059.473821577</v>
       </c>
       <c r="AE14" t="n">
-        <v>1522270.871588042</v>
+        <v>1607768.212047985</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.729459888076443e-06</v>
+        <v>2.923737750022798e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>11.71527777777778</v>
       </c>
       <c r="AH14" t="n">
-        <v>1376987.476124265</v>
+        <v>1454325.070406983</v>
       </c>
     </row>
     <row r="15">
@@ -6905,28 +6905,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1094.527228566133</v>
+        <v>1157.014133793618</v>
       </c>
       <c r="AB15" t="n">
-        <v>1497.580441257573</v>
+        <v>1583.077781717516</v>
       </c>
       <c r="AC15" t="n">
-        <v>1354.6534658113</v>
+        <v>1431.991060094017</v>
       </c>
       <c r="AD15" t="n">
-        <v>1094527.228566133</v>
+        <v>1157014.133793618</v>
       </c>
       <c r="AE15" t="n">
-        <v>1497580.441257573</v>
+        <v>1583077.781717516</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.736316456169196e-06</v>
+        <v>2.935329118580459e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>11.66944444444444</v>
       </c>
       <c r="AH15" t="n">
-        <v>1354653.4658113</v>
+        <v>1431991.060094017</v>
       </c>
     </row>
     <row r="16">
@@ -7011,28 +7011,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1075.663654338907</v>
+        <v>1138.150559566392</v>
       </c>
       <c r="AB16" t="n">
-        <v>1471.770466797721</v>
+        <v>1557.267807257664</v>
       </c>
       <c r="AC16" t="n">
-        <v>1331.30675908937</v>
+        <v>1408.644353372087</v>
       </c>
       <c r="AD16" t="n">
-        <v>1075663.654338907</v>
+        <v>1138150.559566392</v>
       </c>
       <c r="AE16" t="n">
-        <v>1471770.466797721</v>
+        <v>1557267.807257664</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.743464793116961e-06</v>
+        <v>2.947413736863978e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>12</v>
+        <v>11.62083333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>1331306.75908937</v>
+        <v>1408644.353372087</v>
       </c>
     </row>
     <row r="17">
@@ -7117,28 +7117,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1059.440733355588</v>
+        <v>1121.927638583072</v>
       </c>
       <c r="AB17" t="n">
-        <v>1449.573550603582</v>
+        <v>1535.070891063525</v>
       </c>
       <c r="AC17" t="n">
-        <v>1311.228285423231</v>
+        <v>1388.565879705949</v>
       </c>
       <c r="AD17" t="n">
-        <v>1059440.733355588</v>
+        <v>1121927.638583072</v>
       </c>
       <c r="AE17" t="n">
-        <v>1449573.550603582</v>
+        <v>1535070.891063525</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.750467245637219e-06</v>
+        <v>2.959251730284568e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>12</v>
+        <v>11.575</v>
       </c>
       <c r="AH17" t="n">
-        <v>1311228.285423231</v>
+        <v>1388565.879705949</v>
       </c>
     </row>
     <row r="18">
@@ -7223,28 +7223,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1044.541537645599</v>
+        <v>1107.028442873084</v>
       </c>
       <c r="AB18" t="n">
-        <v>1429.187813727051</v>
+        <v>1514.685154186994</v>
       </c>
       <c r="AC18" t="n">
-        <v>1292.788134662635</v>
+        <v>1370.125728945353</v>
       </c>
       <c r="AD18" t="n">
-        <v>1044541.537645599</v>
+        <v>1107028.442873084</v>
       </c>
       <c r="AE18" t="n">
-        <v>1429187.813727051</v>
+        <v>1514685.154186994</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.753822587469844e-06</v>
+        <v>2.964924102131934e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>12</v>
+        <v>11.55277777777778</v>
       </c>
       <c r="AH18" t="n">
-        <v>1292788.134662635</v>
+        <v>1370125.728945353</v>
       </c>
     </row>
     <row r="19">
@@ -7329,28 +7329,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1038.749745589904</v>
+        <v>1101.236650817389</v>
       </c>
       <c r="AB19" t="n">
-        <v>1421.263228320618</v>
+        <v>1506.760568780561</v>
       </c>
       <c r="AC19" t="n">
-        <v>1285.619860565167</v>
+        <v>1362.957454847884</v>
       </c>
       <c r="AD19" t="n">
-        <v>1038749.745589904</v>
+        <v>1101236.650817389</v>
       </c>
       <c r="AE19" t="n">
-        <v>1421263.228320618</v>
+        <v>1506760.568780561</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.757177929302468e-06</v>
+        <v>2.9705964739793e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>12</v>
+        <v>11.53055555555556</v>
       </c>
       <c r="AH19" t="n">
-        <v>1285619.860565167</v>
+        <v>1362957.454847884</v>
       </c>
     </row>
     <row r="20">
@@ -7435,28 +7435,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1042.830517136877</v>
+        <v>1105.317422364363</v>
       </c>
       <c r="AB20" t="n">
-        <v>1426.846719982121</v>
+        <v>1512.344060442064</v>
       </c>
       <c r="AC20" t="n">
-        <v>1290.670471618976</v>
+        <v>1368.008065901693</v>
       </c>
       <c r="AD20" t="n">
-        <v>1042830.517136877</v>
+        <v>1105317.422364363</v>
       </c>
       <c r="AE20" t="n">
-        <v>1426846.719982121</v>
+        <v>1512344.060442064</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.757032044874962e-06</v>
+        <v>2.970349849116371e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>12</v>
+        <v>11.53194444444444</v>
       </c>
       <c r="AH20" t="n">
-        <v>1290670.471618976</v>
+        <v>1368008.065901693</v>
       </c>
     </row>
     <row r="21">
@@ -7541,28 +7541,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1047.240473597648</v>
+        <v>1109.727378825133</v>
       </c>
       <c r="AB21" t="n">
-        <v>1432.880616965295</v>
+        <v>1518.377957425238</v>
       </c>
       <c r="AC21" t="n">
-        <v>1296.128501942703</v>
+        <v>1373.46609622542</v>
       </c>
       <c r="AD21" t="n">
-        <v>1047240.473597648</v>
+        <v>1109727.378825133</v>
       </c>
       <c r="AE21" t="n">
-        <v>1432880.616965295</v>
+        <v>1518377.957425238</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.757032044874962e-06</v>
+        <v>2.970349849116371e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>12</v>
+        <v>11.53194444444444</v>
       </c>
       <c r="AH21" t="n">
-        <v>1296128.501942703</v>
+        <v>1373466.09622542</v>
       </c>
     </row>
   </sheetData>
@@ -7838,28 +7838,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3986.361182801766</v>
+        <v>4117.367972571355</v>
       </c>
       <c r="AB2" t="n">
-        <v>5454.315236153085</v>
+        <v>5633.564505527508</v>
       </c>
       <c r="AC2" t="n">
-        <v>4933.763045193942</v>
+        <v>5095.905015877191</v>
       </c>
       <c r="AD2" t="n">
-        <v>3986361.182801766</v>
+        <v>4117367.972571356</v>
       </c>
       <c r="AE2" t="n">
-        <v>5454315.236153085</v>
+        <v>5633564.505527508</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.273182184735345e-07</v>
+        <v>1.432742251079401e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.33611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>4933763.045193942</v>
+        <v>5095905.015877191</v>
       </c>
     </row>
     <row r="3">
@@ -7944,28 +7944,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1750.389830185729</v>
+        <v>1831.11437293661</v>
       </c>
       <c r="AB3" t="n">
-        <v>2394.960587409385</v>
+        <v>2505.411468116621</v>
       </c>
       <c r="AC3" t="n">
-        <v>2166.388910295329</v>
+        <v>2266.298513966651</v>
       </c>
       <c r="AD3" t="n">
-        <v>1750389.830185729</v>
+        <v>1831114.37293661</v>
       </c>
       <c r="AE3" t="n">
-        <v>2394960.587409385</v>
+        <v>2505411.468116621</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.333488467426514e-06</v>
+        <v>2.309323336471651e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.71944444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>2166388.910295329</v>
+        <v>2266298.513966651</v>
       </c>
     </row>
     <row r="4">
@@ -8050,28 +8050,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1408.735927178462</v>
+        <v>1479.369902085483</v>
       </c>
       <c r="AB4" t="n">
-        <v>1927.494644608419</v>
+        <v>2024.139165227251</v>
       </c>
       <c r="AC4" t="n">
-        <v>1743.537260982715</v>
+        <v>1830.958164195123</v>
       </c>
       <c r="AD4" t="n">
-        <v>1408735.927178462</v>
+        <v>1479369.902085483</v>
       </c>
       <c r="AE4" t="n">
-        <v>1927494.644608419</v>
+        <v>2024139.165227251</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.514586946479459e-06</v>
+        <v>2.622948053964406e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.83888888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>1743537.260982716</v>
+        <v>1830958.164195123</v>
       </c>
     </row>
     <row r="5">
@@ -8156,28 +8156,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1273.225962217085</v>
+        <v>1333.769458788797</v>
       </c>
       <c r="AB5" t="n">
-        <v>1742.083932270535</v>
+        <v>1824.922215270511</v>
       </c>
       <c r="AC5" t="n">
-        <v>1575.82188680479</v>
+        <v>1650.754200339508</v>
       </c>
       <c r="AD5" t="n">
-        <v>1273225.962217085</v>
+        <v>1333769.458788797</v>
       </c>
       <c r="AE5" t="n">
-        <v>1742083.932270535</v>
+        <v>1824922.215270511</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.609059986385412e-06</v>
+        <v>2.786555614923126e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.02638888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>1575821.88680479</v>
+        <v>1650754.200339508</v>
       </c>
     </row>
     <row r="6">
@@ -8262,28 +8262,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1183.726104245762</v>
+        <v>1254.274738298211</v>
       </c>
       <c r="AB6" t="n">
-        <v>1619.626278139105</v>
+        <v>1716.15403163574</v>
       </c>
       <c r="AC6" t="n">
-        <v>1465.051419313267</v>
+        <v>1552.366699493735</v>
       </c>
       <c r="AD6" t="n">
-        <v>1183726.104245762</v>
+        <v>1254274.738298211</v>
       </c>
       <c r="AE6" t="n">
-        <v>1619626.278139105</v>
+        <v>1716154.03163574</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.667464245879986e-06</v>
+        <v>2.887699586314539e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.57083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1465051.419313267</v>
+        <v>1552366.699493735</v>
       </c>
     </row>
     <row r="7">
@@ -8368,28 +8368,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1130.515303014701</v>
+        <v>1190.973458731841</v>
       </c>
       <c r="AB7" t="n">
-        <v>1546.820912399896</v>
+        <v>1629.542428277674</v>
       </c>
       <c r="AC7" t="n">
-        <v>1399.194495497235</v>
+        <v>1474.021186000014</v>
       </c>
       <c r="AD7" t="n">
-        <v>1130515.303014701</v>
+        <v>1190973.458731842</v>
       </c>
       <c r="AE7" t="n">
-        <v>1546820.912399896</v>
+        <v>1629542.428277674</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.707305911271634e-06</v>
+        <v>2.956697024162945e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.27638888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>1399194.495497235</v>
+        <v>1474021.186000014</v>
       </c>
     </row>
     <row r="8">
@@ -8474,28 +8474,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1086.892467165457</v>
+        <v>1147.350622882597</v>
       </c>
       <c r="AB8" t="n">
-        <v>1487.134223887266</v>
+        <v>1569.855739765044</v>
       </c>
       <c r="AC8" t="n">
-        <v>1345.204220765457</v>
+        <v>1420.030911268236</v>
       </c>
       <c r="AD8" t="n">
-        <v>1086892.467165457</v>
+        <v>1147350.622882597</v>
       </c>
       <c r="AE8" t="n">
-        <v>1487134.223887266</v>
+        <v>1569855.739765044</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.736885329516948e-06</v>
+        <v>3.007922394686762e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.06805555555555</v>
       </c>
       <c r="AH8" t="n">
-        <v>1345204.220765457</v>
+        <v>1420030.911268236</v>
       </c>
     </row>
     <row r="9">
@@ -8580,28 +8580,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1045.299040690225</v>
+        <v>1115.762333888103</v>
       </c>
       <c r="AB9" t="n">
-        <v>1430.224262811385</v>
+        <v>1526.635249185822</v>
       </c>
       <c r="AC9" t="n">
-        <v>1293.725666501026</v>
+        <v>1380.935323649555</v>
       </c>
       <c r="AD9" t="n">
-        <v>1045299.040690225</v>
+        <v>1115762.333888103</v>
       </c>
       <c r="AE9" t="n">
-        <v>1430224.262811385</v>
+        <v>1526635.249185822</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.758164400805669e-06</v>
+        <v>3.044773298992161e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.92083333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1293725.666501026</v>
+        <v>1380935.323649555</v>
       </c>
     </row>
     <row r="10">
@@ -8686,28 +8686,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1012.701954188137</v>
+        <v>1073.245361251297</v>
       </c>
       <c r="AB10" t="n">
-        <v>1385.623490977265</v>
+        <v>1468.461651507693</v>
       </c>
       <c r="AC10" t="n">
-        <v>1253.381529733178</v>
+        <v>1328.31373248667</v>
       </c>
       <c r="AD10" t="n">
-        <v>1012701.954188137</v>
+        <v>1073245.361251297</v>
       </c>
       <c r="AE10" t="n">
-        <v>1385623.490977265</v>
+        <v>1468461.651507692</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.77551967171491e-06</v>
+        <v>3.074829001085217e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.80555555555556</v>
       </c>
       <c r="AH10" t="n">
-        <v>1253381.529733178</v>
+        <v>1328313.73248667</v>
       </c>
     </row>
     <row r="11">
@@ -8792,28 +8792,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>984.3304845389267</v>
+        <v>1044.873891602087</v>
       </c>
       <c r="AB11" t="n">
-        <v>1346.804394542313</v>
+        <v>1429.64255507274</v>
       </c>
       <c r="AC11" t="n">
-        <v>1218.267273379034</v>
+        <v>1293.199476132526</v>
       </c>
       <c r="AD11" t="n">
-        <v>984330.4845389267</v>
+        <v>1044873.891602088</v>
       </c>
       <c r="AE11" t="n">
-        <v>1346804.394542313</v>
+        <v>1429642.55507274</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.791214873232831e-06</v>
+        <v>3.102009809934589e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.70277777777778</v>
       </c>
       <c r="AH11" t="n">
-        <v>1218267.273379034</v>
+        <v>1293199.476132526</v>
       </c>
     </row>
     <row r="12">
@@ -8898,28 +8898,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>960.2604779072128</v>
+        <v>1020.803884970373</v>
       </c>
       <c r="AB12" t="n">
-        <v>1313.870749575054</v>
+        <v>1396.708910105481</v>
       </c>
       <c r="AC12" t="n">
-        <v>1188.476769264789</v>
+        <v>1263.408972018281</v>
       </c>
       <c r="AD12" t="n">
-        <v>960260.4779072128</v>
+        <v>1020803.884970373</v>
       </c>
       <c r="AE12" t="n">
-        <v>1313870.749575054</v>
+        <v>1396708.910105481</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.800722543383111e-06</v>
+        <v>3.118475107602958e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.64027777777778</v>
       </c>
       <c r="AH12" t="n">
-        <v>1188476.769264789</v>
+        <v>1263408.972018281</v>
       </c>
     </row>
     <row r="13">
@@ -9004,28 +9004,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>941.6798352596027</v>
+        <v>1002.223242322763</v>
       </c>
       <c r="AB13" t="n">
-        <v>1288.447894584493</v>
+        <v>1371.28605511492</v>
       </c>
       <c r="AC13" t="n">
-        <v>1165.480235873326</v>
+        <v>1240.412438626818</v>
       </c>
       <c r="AD13" t="n">
-        <v>941679.8352596026</v>
+        <v>1002223.242322763</v>
       </c>
       <c r="AE13" t="n">
-        <v>1288447.894584493</v>
+        <v>1371286.05511492</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.808871974940494e-06</v>
+        <v>3.132588219890133e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11.5875</v>
       </c>
       <c r="AH13" t="n">
-        <v>1165480.235873326</v>
+        <v>1240412.438626818</v>
       </c>
     </row>
     <row r="14">
@@ -9110,28 +9110,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>938.0052303037743</v>
+        <v>998.5486373669349</v>
       </c>
       <c r="AB14" t="n">
-        <v>1283.420137971799</v>
+        <v>1366.258298502227</v>
       </c>
       <c r="AC14" t="n">
-        <v>1160.932321295247</v>
+        <v>1235.864524048739</v>
       </c>
       <c r="AD14" t="n">
-        <v>938005.2303037742</v>
+        <v>998548.6373669349</v>
       </c>
       <c r="AE14" t="n">
-        <v>1283420.1379718</v>
+        <v>1366258.298502227</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.811437536727077e-06</v>
+        <v>3.137031236721279e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>11.57222222222222</v>
       </c>
       <c r="AH14" t="n">
-        <v>1160932.321295247</v>
+        <v>1235864.524048739</v>
       </c>
     </row>
     <row r="15">
@@ -9216,28 +9216,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>942.3894298903891</v>
+        <v>1002.93283695355</v>
       </c>
       <c r="AB15" t="n">
-        <v>1289.418793263441</v>
+        <v>1372.256953793868</v>
       </c>
       <c r="AC15" t="n">
-        <v>1166.35847334502</v>
+        <v>1241.290676098512</v>
       </c>
       <c r="AD15" t="n">
-        <v>942389.4298903891</v>
+        <v>1002932.83695355</v>
       </c>
       <c r="AE15" t="n">
-        <v>1289418.793263441</v>
+        <v>1372256.953793868</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.811135705928655e-06</v>
+        <v>3.136508528858791e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>11.57361111111111</v>
       </c>
       <c r="AH15" t="n">
-        <v>1166358.47334502</v>
+        <v>1241290.676098512</v>
       </c>
     </row>
     <row r="16">
@@ -9322,28 +9322,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>946.80081793749</v>
+        <v>1007.344225000651</v>
       </c>
       <c r="AB16" t="n">
-        <v>1295.45464900619</v>
+        <v>1378.292809536617</v>
       </c>
       <c r="AC16" t="n">
-        <v>1171.818275487058</v>
+        <v>1246.750478240549</v>
       </c>
       <c r="AD16" t="n">
-        <v>946800.8179374901</v>
+        <v>1007344.225000651</v>
       </c>
       <c r="AE16" t="n">
-        <v>1295454.64900619</v>
+        <v>1378292.809536617</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.810984790529444e-06</v>
+        <v>3.136247174927547e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>12</v>
+        <v>11.57361111111111</v>
       </c>
       <c r="AH16" t="n">
-        <v>1171818.275487058</v>
+        <v>1246750.47824055</v>
       </c>
     </row>
   </sheetData>
@@ -9619,28 +9619,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1313.617023354499</v>
+        <v>1386.454696910201</v>
       </c>
       <c r="AB2" t="n">
-        <v>1797.3487640466</v>
+        <v>1897.008482376881</v>
       </c>
       <c r="AC2" t="n">
-        <v>1625.812320600825</v>
+        <v>1715.960655286957</v>
       </c>
       <c r="AD2" t="n">
-        <v>1313617.023354498</v>
+        <v>1386454.696910201</v>
       </c>
       <c r="AE2" t="n">
-        <v>1797348.7640466</v>
+        <v>1897008.482376881</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.442679377636945e-06</v>
+        <v>2.729859832259767e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.2125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1625812.320600825</v>
+        <v>1715960.655286958</v>
       </c>
     </row>
     <row r="3">
@@ -9725,28 +9725,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>872.7932736444046</v>
+        <v>927.4855568292479</v>
       </c>
       <c r="AB3" t="n">
-        <v>1194.194261921967</v>
+        <v>1269.026656628713</v>
       </c>
       <c r="AC3" t="n">
-        <v>1080.222037626307</v>
+        <v>1147.912533610167</v>
       </c>
       <c r="AD3" t="n">
-        <v>872793.2736444046</v>
+        <v>927485.5568292479</v>
       </c>
       <c r="AE3" t="n">
-        <v>1194194.261921967</v>
+        <v>1269026.656628713</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.798339333930773e-06</v>
+        <v>3.402845003933939e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.00555555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>1080222.037626307</v>
+        <v>1147912.533610167</v>
       </c>
     </row>
     <row r="4">
@@ -9831,28 +9831,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>745.9113378862656</v>
+        <v>800.5182802165372</v>
       </c>
       <c r="AB4" t="n">
-        <v>1020.588799781737</v>
+        <v>1095.304427366286</v>
       </c>
       <c r="AC4" t="n">
-        <v>923.1852371359444</v>
+        <v>990.7701100878652</v>
       </c>
       <c r="AD4" t="n">
-        <v>745911.3378862656</v>
+        <v>800518.2802165372</v>
       </c>
       <c r="AE4" t="n">
-        <v>1020588.799781737</v>
+        <v>1095304.427366286</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.922281439911955e-06</v>
+        <v>3.637370139517362e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.16805555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>923185.2371359443</v>
+        <v>990770.1100878651</v>
       </c>
     </row>
     <row r="5">
@@ -9937,28 +9937,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>697.5281217418516</v>
+        <v>761.1649993217161</v>
       </c>
       <c r="AB5" t="n">
-        <v>954.3887489361003</v>
+        <v>1041.459532301769</v>
       </c>
       <c r="AC5" t="n">
-        <v>863.3032262306604</v>
+        <v>942.0640962365213</v>
       </c>
       <c r="AD5" t="n">
-        <v>697528.1217418516</v>
+        <v>761164.9993217161</v>
       </c>
       <c r="AE5" t="n">
-        <v>954388.7489361004</v>
+        <v>1041459.532301769</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.961181747631593e-06</v>
+        <v>3.710977892669225e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.92638888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>863303.2262306603</v>
+        <v>942064.0962365214</v>
       </c>
     </row>
     <row r="6">
@@ -10043,28 +10043,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>701.1801214038416</v>
+        <v>764.8169989837058</v>
       </c>
       <c r="AB6" t="n">
-        <v>959.3855759884892</v>
+        <v>1046.456359354158</v>
       </c>
       <c r="AC6" t="n">
-        <v>867.8231631222598</v>
+        <v>946.584033128121</v>
       </c>
       <c r="AD6" t="n">
-        <v>701180.1214038415</v>
+        <v>764816.9989837059</v>
       </c>
       <c r="AE6" t="n">
-        <v>959385.5759884892</v>
+        <v>1046456.359354158</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.961518546832629e-06</v>
+        <v>3.71161518923331e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.92361111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>867823.1631222598</v>
+        <v>946584.0331281209</v>
       </c>
     </row>
   </sheetData>
@@ -10340,28 +10340,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1952.871659168597</v>
+        <v>2047.752626103751</v>
       </c>
       <c r="AB2" t="n">
-        <v>2672.00515869159</v>
+        <v>2801.825483505104</v>
       </c>
       <c r="AC2" t="n">
-        <v>2416.992736528858</v>
+        <v>2534.423191746141</v>
       </c>
       <c r="AD2" t="n">
-        <v>1952871.659168598</v>
+        <v>2047752.626103751</v>
       </c>
       <c r="AE2" t="n">
-        <v>2672005.15869159</v>
+        <v>2801825.483505104</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.196508669266168e-06</v>
+        <v>2.179778943895854e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.70138888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>2416992.736528858</v>
+        <v>2534423.191746141</v>
       </c>
     </row>
     <row r="3">
@@ -10446,28 +10446,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1149.052386822325</v>
+        <v>1224.854751344961</v>
       </c>
       <c r="AB3" t="n">
-        <v>1572.184168263907</v>
+        <v>1675.900307568081</v>
       </c>
       <c r="AC3" t="n">
-        <v>1422.137117819137</v>
+        <v>1515.954734354637</v>
       </c>
       <c r="AD3" t="n">
-        <v>1149052.386822325</v>
+        <v>1224854.751344961</v>
       </c>
       <c r="AE3" t="n">
-        <v>1572184.168263907</v>
+        <v>1675900.307568081</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.613119874156745e-06</v>
+        <v>2.938754081759686e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.87083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1422137.117819137</v>
+        <v>1515954.734354637</v>
       </c>
     </row>
     <row r="4">
@@ -10552,28 +10552,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>974.8751763423511</v>
+        <v>1041.266250940587</v>
       </c>
       <c r="AB4" t="n">
-        <v>1333.867224729001</v>
+        <v>1424.706421961802</v>
       </c>
       <c r="AC4" t="n">
-        <v>1206.564808895272</v>
+        <v>1288.734440637789</v>
       </c>
       <c r="AD4" t="n">
-        <v>974875.1763423511</v>
+        <v>1041266.250940587</v>
       </c>
       <c r="AE4" t="n">
-        <v>1333867.224729001</v>
+        <v>1424706.421961802</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.757951070288465e-06</v>
+        <v>3.202605067428513e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.72916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1206564.808895272</v>
+        <v>1288734.440637789</v>
       </c>
     </row>
     <row r="5">
@@ -10658,28 +10658,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>892.6401131233881</v>
+        <v>949.5346464512022</v>
       </c>
       <c r="AB5" t="n">
-        <v>1221.349583277875</v>
+        <v>1299.195193786653</v>
       </c>
       <c r="AC5" t="n">
-        <v>1104.78569322474</v>
+        <v>1175.201827923561</v>
       </c>
       <c r="AD5" t="n">
-        <v>892640.1131233881</v>
+        <v>949534.6464512022</v>
       </c>
       <c r="AE5" t="n">
-        <v>1221349.583277875</v>
+        <v>1299195.193786653</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.832541552834612e-06</v>
+        <v>3.33849272745595e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.20972222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>1104785.69322474</v>
+        <v>1175201.827923561</v>
       </c>
     </row>
     <row r="6">
@@ -10764,28 +10764,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>824.4625195446204</v>
+        <v>890.7682532882844</v>
       </c>
       <c r="AB6" t="n">
-        <v>1128.065991960255</v>
+        <v>1218.788422070858</v>
       </c>
       <c r="AC6" t="n">
-        <v>1020.404956938131</v>
+        <v>1102.468965648709</v>
       </c>
       <c r="AD6" t="n">
-        <v>824462.5195446204</v>
+        <v>890768.2532882844</v>
       </c>
       <c r="AE6" t="n">
-        <v>1128065.991960255</v>
+        <v>1218788.422070858</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.879422396076359e-06</v>
+        <v>3.423899442505593e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.90555555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>1020404.956938131</v>
+        <v>1102468.965648709</v>
       </c>
     </row>
     <row r="7">
@@ -10870,28 +10870,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>787.6286750671909</v>
+        <v>844.6084597410256</v>
       </c>
       <c r="AB7" t="n">
-        <v>1077.668300951704</v>
+        <v>1155.630556113131</v>
       </c>
       <c r="AC7" t="n">
-        <v>974.8171508258323</v>
+        <v>1045.338797775366</v>
       </c>
       <c r="AD7" t="n">
-        <v>787628.6750671909</v>
+        <v>844608.4597410256</v>
       </c>
       <c r="AE7" t="n">
-        <v>1077668.300951704</v>
+        <v>1155630.556113131</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.904071086852948e-06</v>
+        <v>3.468804004026539e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.75138888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>974817.1508258323</v>
+        <v>1045338.797775366</v>
       </c>
     </row>
     <row r="8">
@@ -10976,28 +10976,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>785.343869993333</v>
+        <v>842.3236546671678</v>
       </c>
       <c r="AB8" t="n">
-        <v>1074.542129851166</v>
+        <v>1152.504385012593</v>
       </c>
       <c r="AC8" t="n">
-        <v>971.989337107521</v>
+        <v>1042.510984057054</v>
       </c>
       <c r="AD8" t="n">
-        <v>785343.869993333</v>
+        <v>842323.6546671678</v>
       </c>
       <c r="AE8" t="n">
-        <v>1074542.129851166</v>
+        <v>1152504.385012593</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.907937548151236e-06</v>
+        <v>3.475847856814138e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.72777777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>971989.337107521</v>
+        <v>1042510.984057054</v>
       </c>
     </row>
     <row r="9">
@@ -11082,28 +11082,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>789.045661232509</v>
+        <v>846.0254459063441</v>
       </c>
       <c r="AB9" t="n">
-        <v>1079.60708393611</v>
+        <v>1157.569339097538</v>
       </c>
       <c r="AC9" t="n">
-        <v>976.5708990833059</v>
+        <v>1047.092546032839</v>
       </c>
       <c r="AD9" t="n">
-        <v>789045.6612325091</v>
+        <v>846025.4459063441</v>
       </c>
       <c r="AE9" t="n">
-        <v>1079607.08393611</v>
+        <v>1157569.339097538</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.908098650705332e-06</v>
+        <v>3.476141350680288e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.72638888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>976570.8990833058</v>
+        <v>1047092.546032839</v>
       </c>
     </row>
   </sheetData>
@@ -11379,28 +11379,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>940.3758801986451</v>
+        <v>1010.711739080612</v>
       </c>
       <c r="AB2" t="n">
-        <v>1286.663765743654</v>
+        <v>1382.900390865056</v>
       </c>
       <c r="AC2" t="n">
-        <v>1163.866381785016</v>
+        <v>1250.918318473783</v>
       </c>
       <c r="AD2" t="n">
-        <v>940375.8801986451</v>
+        <v>1010711.739080612</v>
       </c>
       <c r="AE2" t="n">
-        <v>1286663.765743654</v>
+        <v>1382900.390865056</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.655926260673438e-06</v>
+        <v>3.245081930704324e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.66944444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>1163866.381785016</v>
+        <v>1250918.318473783</v>
       </c>
     </row>
     <row r="3">
@@ -11485,28 +11485,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>665.1477743114402</v>
+        <v>717.8784227678235</v>
       </c>
       <c r="AB3" t="n">
-        <v>910.0845290617027</v>
+        <v>982.2329285917533</v>
       </c>
       <c r="AC3" t="n">
-        <v>823.2273389197119</v>
+        <v>888.4899964595292</v>
       </c>
       <c r="AD3" t="n">
-        <v>665147.7743114402</v>
+        <v>717878.4227678236</v>
       </c>
       <c r="AE3" t="n">
-        <v>910084.5290617027</v>
+        <v>982232.9285917534</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.958498338299658e-06</v>
+        <v>3.8380257139868e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.40277777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>823227.3389197119</v>
+        <v>888489.9964595292</v>
       </c>
     </row>
     <row r="4">
@@ -11591,28 +11591,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>642.696618120298</v>
+        <v>695.4272665766813</v>
       </c>
       <c r="AB4" t="n">
-        <v>879.3658666858749</v>
+        <v>951.5142662159257</v>
       </c>
       <c r="AC4" t="n">
-        <v>795.4404225671198</v>
+        <v>860.7030801069373</v>
       </c>
       <c r="AD4" t="n">
-        <v>642696.618120298</v>
+        <v>695427.2665766813</v>
       </c>
       <c r="AE4" t="n">
-        <v>879365.866685875</v>
+        <v>951514.2662159257</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.989804928990464e-06</v>
+        <v>3.899376544742617e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.20833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>795440.4225671197</v>
+        <v>860703.0801069372</v>
       </c>
     </row>
     <row r="5">
@@ -11697,28 +11697,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>648.1986518164061</v>
+        <v>700.9293002727895</v>
       </c>
       <c r="AB5" t="n">
-        <v>886.8939919214856</v>
+        <v>959.0423914515363</v>
       </c>
       <c r="AC5" t="n">
-        <v>802.2500740960338</v>
+        <v>867.5127316358512</v>
       </c>
       <c r="AD5" t="n">
-        <v>648198.6518164062</v>
+        <v>700929.3002727896</v>
       </c>
       <c r="AE5" t="n">
-        <v>886893.9919214856</v>
+        <v>959042.3914515363</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.989455134681069e-06</v>
+        <v>3.898691060600094e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.20972222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>802250.0740960338</v>
+        <v>867512.7316358512</v>
       </c>
     </row>
   </sheetData>
@@ -11994,28 +11994,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4496.822039886339</v>
+        <v>4639.196589891993</v>
       </c>
       <c r="AB2" t="n">
-        <v>6152.750300759873</v>
+        <v>6347.553441199466</v>
       </c>
       <c r="AC2" t="n">
-        <v>5565.540447494401</v>
+        <v>5741.751849618357</v>
       </c>
       <c r="AD2" t="n">
-        <v>4496822.039886339</v>
+        <v>4639196.589891993</v>
       </c>
       <c r="AE2" t="n">
-        <v>6152750.300759872</v>
+        <v>6347553.441199466</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.748689974373756e-07</v>
+        <v>1.333147548202114e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.80555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>5565540.447494401</v>
+        <v>5741751.849618357</v>
       </c>
     </row>
     <row r="3">
@@ -12100,28 +12100,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1870.502767965067</v>
+        <v>1951.823168539174</v>
       </c>
       <c r="AB3" t="n">
-        <v>2559.304407887903</v>
+        <v>2670.570567556271</v>
       </c>
       <c r="AC3" t="n">
-        <v>2315.047987205378</v>
+        <v>2415.695060758033</v>
       </c>
       <c r="AD3" t="n">
-        <v>1870502.767965067</v>
+        <v>1951823.168539174</v>
       </c>
       <c r="AE3" t="n">
-        <v>2559304.407887903</v>
+        <v>2670570.567556271</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.292794366695363e-06</v>
+        <v>2.224228412788857e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.06666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2315047.987205378</v>
+        <v>2415695.060758033</v>
       </c>
     </row>
     <row r="4">
@@ -12206,28 +12206,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1490.999355033548</v>
+        <v>1562.14404911764</v>
       </c>
       <c r="AB4" t="n">
-        <v>2040.051095806049</v>
+        <v>2137.394404934289</v>
       </c>
       <c r="AC4" t="n">
-        <v>1845.351482452015</v>
+        <v>1933.404482779249</v>
       </c>
       <c r="AD4" t="n">
-        <v>1490999.355033548</v>
+        <v>1562144.04911764</v>
       </c>
       <c r="AE4" t="n">
-        <v>2040051.095806049</v>
+        <v>2137394.404934289</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.480342276903135e-06</v>
+        <v>2.546901067767713e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.03194444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>1845351.482452015</v>
+        <v>1933404.482779249</v>
       </c>
     </row>
     <row r="5">
@@ -12312,28 +12312,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1332.777383203717</v>
+        <v>1393.831711652365</v>
       </c>
       <c r="AB5" t="n">
-        <v>1823.564813687719</v>
+        <v>1907.10203939803</v>
       </c>
       <c r="AC5" t="n">
-        <v>1649.526347258653</v>
+        <v>1725.090897392404</v>
       </c>
       <c r="AD5" t="n">
-        <v>1332777.383203717</v>
+        <v>1393831.711652365</v>
       </c>
       <c r="AE5" t="n">
-        <v>1823564.813687719</v>
+        <v>1907102.03939803</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.577705665695208e-06</v>
+        <v>2.714412948462478e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.16527777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>1649526.347258653</v>
+        <v>1725090.897392404</v>
       </c>
     </row>
     <row r="6">
@@ -12418,28 +12418,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1236.731792405821</v>
+        <v>1307.876396981362</v>
       </c>
       <c r="AB6" t="n">
-        <v>1692.150999125621</v>
+        <v>1789.494185784313</v>
       </c>
       <c r="AC6" t="n">
-        <v>1530.654482717915</v>
+        <v>1618.707372263921</v>
       </c>
       <c r="AD6" t="n">
-        <v>1236731.792405821</v>
+        <v>1307876.396981362</v>
       </c>
       <c r="AE6" t="n">
-        <v>1692150.999125621</v>
+        <v>1789494.185784313</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.639324277342419e-06</v>
+        <v>2.820426611820762e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.67083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1530654.482717915</v>
+        <v>1618707.372263921</v>
       </c>
     </row>
     <row r="7">
@@ -12524,28 +12524,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1182.159883834207</v>
+        <v>1243.128871428283</v>
       </c>
       <c r="AB7" t="n">
-        <v>1617.483306275248</v>
+        <v>1700.903764863361</v>
       </c>
       <c r="AC7" t="n">
-        <v>1463.112969676416</v>
+        <v>1538.571896778229</v>
       </c>
       <c r="AD7" t="n">
-        <v>1182159.883834207</v>
+        <v>1243128.871428283</v>
       </c>
       <c r="AE7" t="n">
-        <v>1617483.306275248</v>
+        <v>1700903.764863361</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.678808047912477e-06</v>
+        <v>2.888357697079469e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.37361111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>1463112.969676416</v>
+        <v>1538571.896778229</v>
       </c>
     </row>
     <row r="8">
@@ -12630,28 +12630,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1136.806436690116</v>
+        <v>1197.775424284192</v>
       </c>
       <c r="AB8" t="n">
-        <v>1555.428719039828</v>
+        <v>1638.849177627941</v>
       </c>
       <c r="AC8" t="n">
-        <v>1406.980785152584</v>
+        <v>1482.439712254397</v>
       </c>
       <c r="AD8" t="n">
-        <v>1136806.436690116</v>
+        <v>1197775.424284192</v>
       </c>
       <c r="AE8" t="n">
-        <v>1555428.719039828</v>
+        <v>1638849.177627941</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.710963391369152e-06</v>
+        <v>2.943680361210611e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.14027777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>1406980.785152584</v>
+        <v>1482439.712254397</v>
       </c>
     </row>
     <row r="9">
@@ -12736,28 +12736,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1093.720248014252</v>
+        <v>1164.779511735221</v>
       </c>
       <c r="AB9" t="n">
-        <v>1496.47629486502</v>
+        <v>1593.702714401514</v>
       </c>
       <c r="AC9" t="n">
-        <v>1353.654697600773</v>
+        <v>1441.601964114841</v>
       </c>
       <c r="AD9" t="n">
-        <v>1093720.248014252</v>
+        <v>1164779.511735221</v>
       </c>
       <c r="AE9" t="n">
-        <v>1496476.29486502</v>
+        <v>1593702.714401515</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.73145307533922e-06</v>
+        <v>2.97893247742441e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.99722222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>1353654.697600773</v>
+        <v>1441601.964114841</v>
       </c>
     </row>
     <row r="10">
@@ -12842,28 +12842,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1064.940287717136</v>
+        <v>1125.994526657233</v>
       </c>
       <c r="AB10" t="n">
-        <v>1457.098283504268</v>
+        <v>1540.63538674503</v>
       </c>
       <c r="AC10" t="n">
-        <v>1318.034868376905</v>
+        <v>1393.59930772943</v>
       </c>
       <c r="AD10" t="n">
-        <v>1064940.287717136</v>
+        <v>1125994.526657233</v>
       </c>
       <c r="AE10" t="n">
-        <v>1457098.283504268</v>
+        <v>1540635.386745031</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.749101124306139e-06</v>
+        <v>3.009295614017317e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.87638888888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>1318034.868376905</v>
+        <v>1393599.30772943</v>
       </c>
     </row>
     <row r="11">
@@ -12948,28 +12948,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1036.889572983179</v>
+        <v>1097.943811923275</v>
       </c>
       <c r="AB11" t="n">
-        <v>1418.718058095072</v>
+        <v>1502.255161335835</v>
       </c>
       <c r="AC11" t="n">
-        <v>1283.317597813778</v>
+        <v>1358.882037166303</v>
       </c>
       <c r="AD11" t="n">
-        <v>1036889.572983179</v>
+        <v>1097943.811923275</v>
       </c>
       <c r="AE11" t="n">
-        <v>1418718.058095072</v>
+        <v>1502255.161335835</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.765104016165973e-06</v>
+        <v>3.036828288724444e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.76805555555556</v>
       </c>
       <c r="AH11" t="n">
-        <v>1283317.597813778</v>
+        <v>1358882.037166303</v>
       </c>
     </row>
     <row r="12">
@@ -13054,28 +13054,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1009.652250895072</v>
+        <v>1070.706489835169</v>
       </c>
       <c r="AB12" t="n">
-        <v>1381.450752388281</v>
+        <v>1464.987855629044</v>
       </c>
       <c r="AC12" t="n">
-        <v>1249.607031458651</v>
+        <v>1325.171470811176</v>
       </c>
       <c r="AD12" t="n">
-        <v>1009652.250895072</v>
+        <v>1070706.489835169</v>
       </c>
       <c r="AE12" t="n">
-        <v>1381450.752388281</v>
+        <v>1464987.855629044</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.776470556178565e-06</v>
+        <v>3.056384207208011e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.69305555555555</v>
       </c>
       <c r="AH12" t="n">
-        <v>1249607.031458651</v>
+        <v>1325171.470811176</v>
       </c>
     </row>
     <row r="13">
@@ -13160,28 +13160,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>987.2744749199112</v>
+        <v>1048.328713860008</v>
       </c>
       <c r="AB13" t="n">
-        <v>1350.832492061266</v>
+        <v>1434.369595302028</v>
       </c>
       <c r="AC13" t="n">
-        <v>1221.910934924247</v>
+        <v>1297.475374276773</v>
       </c>
       <c r="AD13" t="n">
-        <v>987274.4749199112</v>
+        <v>1048328.713860008</v>
       </c>
       <c r="AE13" t="n">
-        <v>1350832.492061266</v>
+        <v>1434369.595302028</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.786640618295095e-06</v>
+        <v>3.073881607956466e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11.62638888888889</v>
       </c>
       <c r="AH13" t="n">
-        <v>1221910.934924247</v>
+        <v>1297475.374276773</v>
       </c>
     </row>
     <row r="14">
@@ -13266,28 +13266,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>972.4305976259441</v>
+        <v>1033.484836566041</v>
       </c>
       <c r="AB14" t="n">
-        <v>1330.522444282012</v>
+        <v>1414.059547522774</v>
       </c>
       <c r="AC14" t="n">
-        <v>1203.539249599715</v>
+        <v>1279.10368895224</v>
       </c>
       <c r="AD14" t="n">
-        <v>972430.5976259441</v>
+        <v>1033484.836566041</v>
       </c>
       <c r="AE14" t="n">
-        <v>1330522.444282012</v>
+        <v>1414059.547522774</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.79307168698643e-06</v>
+        <v>3.084946140782695e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>11.58472222222222</v>
       </c>
       <c r="AH14" t="n">
-        <v>1203539.249599715</v>
+        <v>1279103.68895224</v>
       </c>
     </row>
     <row r="15">
@@ -13372,28 +13372,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>963.1967145798968</v>
+        <v>1024.250953519993</v>
       </c>
       <c r="AB15" t="n">
-        <v>1317.88823812824</v>
+        <v>1401.425341369003</v>
       </c>
       <c r="AC15" t="n">
-        <v>1192.11083434904</v>
+        <v>1267.675273701564</v>
       </c>
       <c r="AD15" t="n">
-        <v>963196.7145798968</v>
+        <v>1024250.953519993</v>
       </c>
       <c r="AE15" t="n">
-        <v>1317888.23812824</v>
+        <v>1401425.341369003</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.795763762252571e-06</v>
+        <v>3.089577805686698e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>11.56666666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>1192110.83434904</v>
+        <v>1267675.273701564</v>
       </c>
     </row>
     <row r="16">
@@ -13478,28 +13478,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>965.2109405672641</v>
+        <v>1026.26517950736</v>
       </c>
       <c r="AB16" t="n">
-        <v>1320.644190985535</v>
+        <v>1404.181294226298</v>
       </c>
       <c r="AC16" t="n">
-        <v>1194.603762933638</v>
+        <v>1270.168202286163</v>
       </c>
       <c r="AD16" t="n">
-        <v>965210.9405672641</v>
+        <v>1026265.179507361</v>
       </c>
       <c r="AE16" t="n">
-        <v>1320644.190985535</v>
+        <v>1404181.294226298</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.797558479096664e-06</v>
+        <v>3.092665582289365e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>12</v>
+        <v>11.55555555555556</v>
       </c>
       <c r="AH16" t="n">
-        <v>1194603.762933638</v>
+        <v>1270168.202286163</v>
       </c>
     </row>
     <row r="17">
@@ -13584,28 +13584,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>969.7342753331747</v>
+        <v>1030.788514273271</v>
       </c>
       <c r="AB17" t="n">
-        <v>1326.8332171677</v>
+        <v>1410.370320408463</v>
       </c>
       <c r="AC17" t="n">
-        <v>1200.20211714333</v>
+        <v>1275.766556495855</v>
       </c>
       <c r="AD17" t="n">
-        <v>969734.2753331746</v>
+        <v>1030788.514273271</v>
       </c>
       <c r="AE17" t="n">
-        <v>1326833.2171677</v>
+        <v>1410370.320408463</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.797408919359656e-06</v>
+        <v>3.092408267572477e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>12</v>
+        <v>11.55694444444444</v>
       </c>
       <c r="AH17" t="n">
-        <v>1200202.11714333</v>
+        <v>1275766.556495855</v>
       </c>
     </row>
   </sheetData>
@@ -13881,28 +13881,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>757.4581547521467</v>
+        <v>826.2272769063736</v>
       </c>
       <c r="AB2" t="n">
-        <v>1036.387664027243</v>
+        <v>1130.480610838206</v>
       </c>
       <c r="AC2" t="n">
-        <v>937.4762799517047</v>
+        <v>1022.589127979309</v>
       </c>
       <c r="AD2" t="n">
-        <v>757458.1547521467</v>
+        <v>826227.2769063736</v>
       </c>
       <c r="AE2" t="n">
-        <v>1036387.664027243</v>
+        <v>1130480.610838206</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.7923714746931e-06</v>
+        <v>3.593096075476355e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.86944444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>937476.2799517047</v>
+        <v>1022589.127979309</v>
       </c>
     </row>
     <row r="3">
@@ -13987,28 +13987,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>602.4442009946185</v>
+        <v>654.0638025461257</v>
       </c>
       <c r="AB3" t="n">
-        <v>824.2907337632072</v>
+        <v>894.9189499020762</v>
       </c>
       <c r="AC3" t="n">
-        <v>745.6215830321569</v>
+        <v>809.5091413500562</v>
       </c>
       <c r="AD3" t="n">
-        <v>602444.2009946186</v>
+        <v>654063.8025461256</v>
       </c>
       <c r="AE3" t="n">
-        <v>824290.7337632072</v>
+        <v>894918.9499020762</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.994984267718124e-06</v>
+        <v>3.99926591344712e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.46111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>745621.5830321569</v>
+        <v>809509.1413500562</v>
       </c>
     </row>
     <row r="4">
@@ -14093,28 +14093,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>607.7967939679544</v>
+        <v>659.4163955194614</v>
       </c>
       <c r="AB4" t="n">
-        <v>831.6143876090613</v>
+        <v>902.2426037479303</v>
       </c>
       <c r="AC4" t="n">
-        <v>752.2462776337753</v>
+        <v>816.1338359516747</v>
       </c>
       <c r="AD4" t="n">
-        <v>607796.7939679543</v>
+        <v>659416.3955194614</v>
       </c>
       <c r="AE4" t="n">
-        <v>831614.3876090613</v>
+        <v>902242.6037479303</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.996058187115783e-06</v>
+        <v>4.001418757111276e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.45416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>752246.2776337754</v>
+        <v>816133.8359516746</v>
       </c>
     </row>
   </sheetData>
@@ -14390,28 +14390,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2795.432180633561</v>
+        <v>2903.388949821026</v>
       </c>
       <c r="AB2" t="n">
-        <v>3824.833635306971</v>
+        <v>3972.54484962579</v>
       </c>
       <c r="AC2" t="n">
-        <v>3459.796881340852</v>
+        <v>3593.410744679068</v>
       </c>
       <c r="AD2" t="n">
-        <v>2795432.180633561</v>
+        <v>2903388.949821026</v>
       </c>
       <c r="AE2" t="n">
-        <v>3824833.635306971</v>
+        <v>3972544.84962579</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.977769280042917e-07</v>
+        <v>1.767137081205884e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.64444444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>3459796.881340852</v>
+        <v>3593410.744679068</v>
       </c>
     </row>
     <row r="3">
@@ -14496,28 +14496,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1436.922851057075</v>
+        <v>1515.351524157024</v>
       </c>
       <c r="AB3" t="n">
-        <v>1966.061237378457</v>
+        <v>2073.370807942666</v>
       </c>
       <c r="AC3" t="n">
-        <v>1778.423112267334</v>
+        <v>1875.491208026823</v>
       </c>
       <c r="AD3" t="n">
-        <v>1436922.851057075</v>
+        <v>1515351.524157024</v>
       </c>
       <c r="AE3" t="n">
-        <v>1966061.237378457</v>
+        <v>2073370.807942666</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.463779336174599e-06</v>
+        <v>2.592461973269782e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.75277777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>1778423.112267334</v>
+        <v>1875491.208026823</v>
       </c>
     </row>
     <row r="4">
@@ -14602,28 +14602,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1192.936429461696</v>
+        <v>1261.465599471308</v>
       </c>
       <c r="AB4" t="n">
-        <v>1632.228251430417</v>
+        <v>1725.992885131176</v>
       </c>
       <c r="AC4" t="n">
-        <v>1476.450677960636</v>
+        <v>1561.266546620485</v>
       </c>
       <c r="AD4" t="n">
-        <v>1192936.429461695</v>
+        <v>1261465.599471308</v>
       </c>
       <c r="AE4" t="n">
-        <v>1632228.251430417</v>
+        <v>1725992.885131176</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.62875382902368e-06</v>
+        <v>2.884644058848626e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.25833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1476450.677960636</v>
+        <v>1561266.546620485</v>
       </c>
     </row>
     <row r="5">
@@ -14708,28 +14708,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1081.279943360849</v>
+        <v>1149.894364716482</v>
       </c>
       <c r="AB5" t="n">
-        <v>1479.454921210727</v>
+        <v>1573.336199564136</v>
       </c>
       <c r="AC5" t="n">
-        <v>1338.257819958398</v>
+        <v>1423.179200868959</v>
       </c>
       <c r="AD5" t="n">
-        <v>1081279.943360849</v>
+        <v>1149894.364716482</v>
       </c>
       <c r="AE5" t="n">
-        <v>1479454.921210727</v>
+        <v>1573336.199564136</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.711474309886744e-06</v>
+        <v>3.031148177159602e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.61805555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>1338257.819958398</v>
+        <v>1423179.200868959</v>
       </c>
     </row>
     <row r="6">
@@ -14814,28 +14814,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1014.670652662218</v>
+        <v>1073.470911782087</v>
       </c>
       <c r="AB6" t="n">
-        <v>1388.31715108235</v>
+        <v>1468.770259694506</v>
       </c>
       <c r="AC6" t="n">
-        <v>1255.818110698409</v>
+        <v>1328.592887541268</v>
       </c>
       <c r="AD6" t="n">
-        <v>1014670.652662218</v>
+        <v>1073470.911782087</v>
       </c>
       <c r="AE6" t="n">
-        <v>1388317.15108235</v>
+        <v>1468770.259694506</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.76449627224446e-06</v>
+        <v>3.125054012392765e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.23888888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>1255818.110698409</v>
+        <v>1328592.887541268</v>
       </c>
     </row>
     <row r="7">
@@ -14920,28 +14920,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>956.1980711668732</v>
+        <v>1024.727151667935</v>
       </c>
       <c r="AB7" t="n">
-        <v>1308.312385452185</v>
+        <v>1402.076896683396</v>
       </c>
       <c r="AC7" t="n">
-        <v>1183.448887612594</v>
+        <v>1268.264645491216</v>
       </c>
       <c r="AD7" t="n">
-        <v>956198.0711668732</v>
+        <v>1024727.151667935</v>
       </c>
       <c r="AE7" t="n">
-        <v>1308312.385452185</v>
+        <v>1402076.896683396</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.801036334279836e-06</v>
+        <v>3.189769177436147e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.99027777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>1183448.887612594</v>
+        <v>1268264.645491216</v>
       </c>
     </row>
     <row r="8">
@@ -15026,28 +15026,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>918.9206066075727</v>
+        <v>977.8061170734625</v>
       </c>
       <c r="AB8" t="n">
-        <v>1257.307713876481</v>
+        <v>1337.877467141287</v>
       </c>
       <c r="AC8" t="n">
-        <v>1137.312030306569</v>
+        <v>1210.19231940014</v>
       </c>
       <c r="AD8" t="n">
-        <v>918920.6066075728</v>
+        <v>977806.1170734625</v>
       </c>
       <c r="AE8" t="n">
-        <v>1257307.713876481</v>
+        <v>1337877.467141287</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.825292715886299e-06</v>
+        <v>3.232729031677711e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.83055555555556</v>
       </c>
       <c r="AH8" t="n">
-        <v>1137312.030306569</v>
+        <v>1210192.31940014</v>
       </c>
     </row>
     <row r="9">
@@ -15132,28 +15132,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>885.4258040564989</v>
+        <v>944.3113145223888</v>
       </c>
       <c r="AB9" t="n">
-        <v>1211.478647339703</v>
+        <v>1292.048400604509</v>
       </c>
       <c r="AC9" t="n">
-        <v>1095.856825558562</v>
+        <v>1168.737114652133</v>
       </c>
       <c r="AD9" t="n">
-        <v>885425.8040564989</v>
+        <v>944311.3145223887</v>
       </c>
       <c r="AE9" t="n">
-        <v>1211478.647339704</v>
+        <v>1292048.400604509</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.844573429470923e-06</v>
+        <v>3.266876608126134e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.70833333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1095856.825558562</v>
+        <v>1168737.114652133</v>
       </c>
     </row>
     <row r="10">
@@ -15238,28 +15238,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>864.6865117737318</v>
+        <v>923.5720222396213</v>
       </c>
       <c r="AB10" t="n">
-        <v>1183.10223268542</v>
+        <v>1263.671985950225</v>
       </c>
       <c r="AC10" t="n">
-        <v>1070.188616092335</v>
+        <v>1143.068905185907</v>
       </c>
       <c r="AD10" t="n">
-        <v>864686.5117737318</v>
+        <v>923572.0222396214</v>
       </c>
       <c r="AE10" t="n">
-        <v>1183102.23268542</v>
+        <v>1263671.985950225</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.855457703268695e-06</v>
+        <v>3.286153465798631e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.63888888888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>1070188.616092335</v>
+        <v>1143068.905185907</v>
       </c>
     </row>
     <row r="11">
@@ -15344,28 +15344,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>863.3064689283681</v>
+        <v>922.1919793942576</v>
       </c>
       <c r="AB11" t="n">
-        <v>1181.2139971812</v>
+        <v>1261.783750446005</v>
       </c>
       <c r="AC11" t="n">
-        <v>1068.480591134483</v>
+        <v>1141.360880228054</v>
       </c>
       <c r="AD11" t="n">
-        <v>863306.4689283681</v>
+        <v>922191.9793942577</v>
       </c>
       <c r="AE11" t="n">
-        <v>1181213.9971812</v>
+        <v>1261783.750446005</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.856546130648471e-06</v>
+        <v>3.28808115156588e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.63194444444444</v>
       </c>
       <c r="AH11" t="n">
-        <v>1068480.591134483</v>
+        <v>1141360.880228054</v>
       </c>
     </row>
     <row r="12">
@@ -15450,28 +15450,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>866.7390342509032</v>
+        <v>925.624544716793</v>
       </c>
       <c r="AB12" t="n">
-        <v>1185.910584489587</v>
+        <v>1266.480337754392</v>
       </c>
       <c r="AC12" t="n">
-        <v>1072.728942741859</v>
+        <v>1145.609231835431</v>
       </c>
       <c r="AD12" t="n">
-        <v>866739.0342509032</v>
+        <v>925624.544716793</v>
       </c>
       <c r="AE12" t="n">
-        <v>1185910.584489587</v>
+        <v>1266480.337754392</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.858256516530979e-06</v>
+        <v>3.291110372057273e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.62222222222222</v>
       </c>
       <c r="AH12" t="n">
-        <v>1072728.942741859</v>
+        <v>1145609.23183543</v>
       </c>
     </row>
   </sheetData>
@@ -15747,28 +15747,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3546.410014541884</v>
+        <v>3666.351063521772</v>
       </c>
       <c r="AB2" t="n">
-        <v>4852.354638464174</v>
+        <v>5016.463273104097</v>
       </c>
       <c r="AC2" t="n">
-        <v>4389.252722091478</v>
+        <v>4537.699058969276</v>
       </c>
       <c r="AD2" t="n">
-        <v>3546410.014541884</v>
+        <v>3666351.063521772</v>
       </c>
       <c r="AE2" t="n">
-        <v>4852354.638464174</v>
+        <v>5016463.273104097</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.811857778007905e-07</v>
+        <v>1.536711052043569e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.01388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>4389252.722091478</v>
+        <v>4537699.058969276</v>
       </c>
     </row>
     <row r="3">
@@ -15853,28 +15853,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1648.619429537036</v>
+        <v>1728.466370887049</v>
       </c>
       <c r="AB3" t="n">
-        <v>2255.71383544864</v>
+        <v>2364.963943202167</v>
       </c>
       <c r="AC3" t="n">
-        <v>2040.431672907673</v>
+        <v>2139.255103710693</v>
       </c>
       <c r="AD3" t="n">
-        <v>1648619.429537036</v>
+        <v>1728466.370887049</v>
       </c>
       <c r="AE3" t="n">
-        <v>2255713.835448639</v>
+        <v>2364963.943202167</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.373881975139614e-06</v>
+        <v>2.395930198362536e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.40138888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>2040431.672907673</v>
+        <v>2139255.103710693</v>
       </c>
     </row>
     <row r="4">
@@ -15959,28 +15959,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1337.131541528294</v>
+        <v>1407.146883385073</v>
       </c>
       <c r="AB4" t="n">
-        <v>1829.522365199313</v>
+        <v>1925.320444786641</v>
       </c>
       <c r="AC4" t="n">
-        <v>1654.915318415457</v>
+        <v>1741.570563740419</v>
       </c>
       <c r="AD4" t="n">
-        <v>1337131.541528294</v>
+        <v>1407146.883385073</v>
       </c>
       <c r="AE4" t="n">
-        <v>1829522.365199313</v>
+        <v>1925320.444786641</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.550606647036038e-06</v>
+        <v>2.704122594692159e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.64583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1654915.318415457</v>
+        <v>1741570.563740419</v>
       </c>
     </row>
     <row r="5">
@@ -16065,28 +16065,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1200.544308848271</v>
+        <v>1270.47430985048</v>
       </c>
       <c r="AB5" t="n">
-        <v>1642.63768764308</v>
+        <v>1738.319000108211</v>
       </c>
       <c r="AC5" t="n">
-        <v>1485.866652190899</v>
+        <v>1572.416274483922</v>
       </c>
       <c r="AD5" t="n">
-        <v>1200544.308848271</v>
+        <v>1270474.309850479</v>
       </c>
       <c r="AE5" t="n">
-        <v>1642637.68764308</v>
+        <v>1738319.000108211</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.642777704361328e-06</v>
+        <v>2.864860870364075e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.88055555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>1485866.652190899</v>
+        <v>1572416.274483922</v>
       </c>
     </row>
     <row r="6">
@@ -16171,28 +16171,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1127.097897781606</v>
+        <v>1187.025796598539</v>
       </c>
       <c r="AB6" t="n">
-        <v>1542.145067794696</v>
+        <v>1624.141062788328</v>
       </c>
       <c r="AC6" t="n">
-        <v>1394.964906938566</v>
+        <v>1469.135319252108</v>
       </c>
       <c r="AD6" t="n">
-        <v>1127097.897781606</v>
+        <v>1187025.796598539</v>
       </c>
       <c r="AE6" t="n">
-        <v>1542145.067794696</v>
+        <v>1624141.062788328</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.699299129597167e-06</v>
+        <v>2.963429300569497e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.45277777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>1394964.906938566</v>
+        <v>1469135.319252108</v>
       </c>
     </row>
     <row r="7">
@@ -16277,28 +16277,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1075.671280066456</v>
+        <v>1135.599178883389</v>
       </c>
       <c r="AB7" t="n">
-        <v>1471.780900654578</v>
+        <v>1553.776895648209</v>
       </c>
       <c r="AC7" t="n">
-        <v>1331.316197153572</v>
+        <v>1405.486609467112</v>
       </c>
       <c r="AD7" t="n">
-        <v>1075671.280066456</v>
+        <v>1135599.178883389</v>
       </c>
       <c r="AE7" t="n">
-        <v>1471780.900654578</v>
+        <v>1553776.895648209</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.737538692223032e-06</v>
+        <v>3.030115758740821e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.17777777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>1331316.197153572</v>
+        <v>1405486.609467112</v>
       </c>
     </row>
     <row r="8">
@@ -16383,28 +16383,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1024.993520080872</v>
+        <v>1094.838180228509</v>
       </c>
       <c r="AB8" t="n">
-        <v>1402.441353697323</v>
+        <v>1498.005899040255</v>
       </c>
       <c r="AC8" t="n">
-        <v>1268.594319239252</v>
+        <v>1355.038318500337</v>
       </c>
       <c r="AD8" t="n">
-        <v>1024993.520080873</v>
+        <v>1094838.180228509</v>
       </c>
       <c r="AE8" t="n">
-        <v>1402441.353697323</v>
+        <v>1498005.899040255</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.766027928123576e-06</v>
+        <v>3.079798498493958e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.98194444444444</v>
       </c>
       <c r="AH8" t="n">
-        <v>1268594.319239252</v>
+        <v>1355038.318500336</v>
       </c>
     </row>
     <row r="9">
@@ -16489,28 +16489,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>993.0196251394643</v>
+        <v>1053.032775302418</v>
       </c>
       <c r="AB9" t="n">
-        <v>1358.693260049797</v>
+        <v>1440.805899696078</v>
       </c>
       <c r="AC9" t="n">
-        <v>1229.021482248612</v>
+        <v>1303.297406812865</v>
       </c>
       <c r="AD9" t="n">
-        <v>993019.6251394643</v>
+        <v>1053032.775302418</v>
       </c>
       <c r="AE9" t="n">
-        <v>1358693.260049797</v>
+        <v>1440805.899696078</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.785833279284382e-06</v>
+        <v>3.114337301530899e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.84861111111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>1229021.482248612</v>
+        <v>1303297.406812865</v>
       </c>
     </row>
     <row r="10">
@@ -16595,28 +16595,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>961.4091269062416</v>
+        <v>1021.422277069195</v>
       </c>
       <c r="AB10" t="n">
-        <v>1315.442381810343</v>
+        <v>1397.555021456624</v>
       </c>
       <c r="AC10" t="n">
-        <v>1189.898407125341</v>
+        <v>1264.174331689595</v>
       </c>
       <c r="AD10" t="n">
-        <v>961409.1269062415</v>
+        <v>1021422.277069195</v>
       </c>
       <c r="AE10" t="n">
-        <v>1315442.381810343</v>
+        <v>1397555.021456623</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.802286955633359e-06</v>
+        <v>3.143031076361589e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.74027777777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>1189898.407125341</v>
+        <v>1264174.331689595</v>
       </c>
     </row>
     <row r="11">
@@ -16701,28 +16701,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>934.4824431450651</v>
+        <v>994.495593308019</v>
       </c>
       <c r="AB11" t="n">
-        <v>1278.600105166853</v>
+        <v>1360.712744813134</v>
       </c>
       <c r="AC11" t="n">
-        <v>1156.572305656246</v>
+        <v>1230.8482302205</v>
       </c>
       <c r="AD11" t="n">
-        <v>934482.4431450651</v>
+        <v>994495.593308019</v>
       </c>
       <c r="AE11" t="n">
-        <v>1278600.105166853</v>
+        <v>1360712.744813134</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.815846003735758e-06</v>
+        <v>3.166676872286878e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.65277777777778</v>
       </c>
       <c r="AH11" t="n">
-        <v>1156572.305656246</v>
+        <v>1230848.230220499</v>
       </c>
     </row>
     <row r="12">
@@ -16807,28 +16807,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>915.2017889478282</v>
+        <v>975.214939110782</v>
       </c>
       <c r="AB12" t="n">
-        <v>1252.219463491763</v>
+        <v>1334.332103138043</v>
       </c>
       <c r="AC12" t="n">
-        <v>1132.709395397163</v>
+        <v>1206.985319961417</v>
       </c>
       <c r="AD12" t="n">
-        <v>915201.7889478281</v>
+        <v>975214.939110782</v>
       </c>
       <c r="AE12" t="n">
-        <v>1252219.463491763</v>
+        <v>1334332.103138043</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.822549353359415e-06</v>
+        <v>3.178366928699381e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.60972222222222</v>
       </c>
       <c r="AH12" t="n">
-        <v>1132709.395397163</v>
+        <v>1206985.319961417</v>
       </c>
     </row>
     <row r="13">
@@ -16913,28 +16913,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>913.7275878490515</v>
+        <v>973.7407380120055</v>
       </c>
       <c r="AB13" t="n">
-        <v>1250.202396511254</v>
+        <v>1332.315036157535</v>
       </c>
       <c r="AC13" t="n">
-        <v>1130.884834458303</v>
+        <v>1205.160759022557</v>
       </c>
       <c r="AD13" t="n">
-        <v>913727.5878490515</v>
+        <v>973740.7380120056</v>
       </c>
       <c r="AE13" t="n">
-        <v>1250202.396511254</v>
+        <v>1332315.036157535</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.826358074736493e-06</v>
+        <v>3.185009006206485e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11.58611111111111</v>
       </c>
       <c r="AH13" t="n">
-        <v>1130884.834458303</v>
+        <v>1205160.759022557</v>
       </c>
     </row>
     <row r="14">
@@ -17019,28 +17019,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>916.6038182027594</v>
+        <v>976.6169683657132</v>
       </c>
       <c r="AB14" t="n">
-        <v>1254.137781771525</v>
+        <v>1336.250421417806</v>
       </c>
       <c r="AC14" t="n">
-        <v>1134.444632072682</v>
+        <v>1208.720556636935</v>
       </c>
       <c r="AD14" t="n">
-        <v>916603.8182027594</v>
+        <v>976616.9683657133</v>
       </c>
       <c r="AE14" t="n">
-        <v>1254137.781771525</v>
+        <v>1336250.421417806</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.826358074736493e-06</v>
+        <v>3.185009006206485e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>11.58611111111111</v>
       </c>
       <c r="AH14" t="n">
-        <v>1134444.632072682</v>
+        <v>1208720.556636935</v>
       </c>
     </row>
     <row r="15">
@@ -17125,28 +17125,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>920.6276354147649</v>
+        <v>980.6407855777186</v>
       </c>
       <c r="AB15" t="n">
-        <v>1259.643345999277</v>
+        <v>1341.755985645558</v>
       </c>
       <c r="AC15" t="n">
-        <v>1139.424752977646</v>
+        <v>1213.700677541899</v>
       </c>
       <c r="AD15" t="n">
-        <v>920627.6354147649</v>
+        <v>980640.7855777186</v>
       </c>
       <c r="AE15" t="n">
-        <v>1259643.345999277</v>
+        <v>1341755.985645558</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.826358074736493e-06</v>
+        <v>3.185009006206485e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>11.58611111111111</v>
       </c>
       <c r="AH15" t="n">
-        <v>1139424.752977645</v>
+        <v>1213700.677541899</v>
       </c>
     </row>
   </sheetData>
@@ -17422,28 +17422,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5779.718384095576</v>
+        <v>5934.694512607296</v>
       </c>
       <c r="AB2" t="n">
-        <v>7908.065676299315</v>
+        <v>8120.110852393318</v>
       </c>
       <c r="AC2" t="n">
-        <v>7153.330987192896</v>
+        <v>7345.138869287752</v>
       </c>
       <c r="AD2" t="n">
-        <v>5779718.384095576</v>
+        <v>5934694.512607296</v>
       </c>
       <c r="AE2" t="n">
-        <v>7908065.676299315</v>
+        <v>8120110.852393318</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.767270123842747e-07</v>
+        <v>1.150391070037474e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.18194444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>7153330.987192896</v>
+        <v>7345138.869287752</v>
       </c>
     </row>
     <row r="3">
@@ -17528,28 +17528,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2099.849601019612</v>
+        <v>2192.801088079687</v>
       </c>
       <c r="AB3" t="n">
-        <v>2873.106862941309</v>
+        <v>3000.287188267271</v>
       </c>
       <c r="AC3" t="n">
-        <v>2598.901576372998</v>
+        <v>2713.943989948445</v>
       </c>
       <c r="AD3" t="n">
-        <v>2099849.601019612</v>
+        <v>2192801.088079687</v>
       </c>
       <c r="AE3" t="n">
-        <v>2873106.862941309</v>
+        <v>3000287.188267271</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.217432189380576e-06</v>
+        <v>2.069554034950076e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.77638888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>2598901.576372998</v>
+        <v>2713943.989948445</v>
       </c>
     </row>
     <row r="4">
@@ -17634,28 +17634,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1639.816974957833</v>
+        <v>1712.093700878758</v>
       </c>
       <c r="AB4" t="n">
-        <v>2243.669928756486</v>
+        <v>2342.562133785601</v>
       </c>
       <c r="AC4" t="n">
-        <v>2029.537219766489</v>
+        <v>2118.991291543707</v>
       </c>
       <c r="AD4" t="n">
-        <v>1639816.974957833</v>
+        <v>1712093.700878758</v>
       </c>
       <c r="AE4" t="n">
-        <v>2243669.928756486</v>
+        <v>2342562.133785601</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.41506823993348e-06</v>
+        <v>2.405522222288269e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.43333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2029537.219766489</v>
+        <v>2118991.291543707</v>
       </c>
     </row>
     <row r="5">
@@ -17740,28 +17740,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1455.421110601055</v>
+        <v>1527.612495667408</v>
       </c>
       <c r="AB5" t="n">
-        <v>1991.371372172144</v>
+        <v>2090.146810079062</v>
       </c>
       <c r="AC5" t="n">
-        <v>1801.317683319309</v>
+        <v>1890.666132064587</v>
       </c>
       <c r="AD5" t="n">
-        <v>1455421.110601055</v>
+        <v>1527612.495667408</v>
       </c>
       <c r="AE5" t="n">
-        <v>1991371.372172144</v>
+        <v>2090146.810079061</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.518738936094044e-06</v>
+        <v>2.581755534842902e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.44722222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>1801317.683319309</v>
+        <v>1890666.132064587</v>
       </c>
     </row>
     <row r="6">
@@ -17846,28 +17846,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1348.660758770956</v>
+        <v>1420.937395183329</v>
       </c>
       <c r="AB6" t="n">
-        <v>1845.29714886389</v>
+        <v>1944.189231423457</v>
       </c>
       <c r="AC6" t="n">
-        <v>1669.184578867135</v>
+        <v>1758.638539863126</v>
       </c>
       <c r="AD6" t="n">
-        <v>1348660.758770956</v>
+        <v>1420937.395183329</v>
       </c>
       <c r="AE6" t="n">
-        <v>1845297.14886389</v>
+        <v>1944189.231423457</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.582853012017456e-06</v>
+        <v>2.690745214663923e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.90277777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>1669184.578867135</v>
+        <v>1758638.539863126</v>
       </c>
     </row>
     <row r="7">
@@ -17952,28 +17952,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1285.343189765202</v>
+        <v>1357.619826177576</v>
       </c>
       <c r="AB7" t="n">
-        <v>1758.663257576219</v>
+        <v>1857.555340135787</v>
       </c>
       <c r="AC7" t="n">
-        <v>1590.818904572529</v>
+        <v>1680.27286556852</v>
       </c>
       <c r="AD7" t="n">
-        <v>1285343.189765202</v>
+        <v>1357619.826177576</v>
       </c>
       <c r="AE7" t="n">
-        <v>1758663.25757622</v>
+        <v>1857555.340135786</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.626674100607311e-06</v>
+        <v>2.765238160963612e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.55555555555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>1590818.904572529</v>
+        <v>1680272.86556852</v>
       </c>
     </row>
     <row r="8">
@@ -18058,28 +18058,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1237.963134573255</v>
+        <v>1299.90243517033</v>
       </c>
       <c r="AB8" t="n">
-        <v>1693.835775802086</v>
+        <v>1778.583859448092</v>
       </c>
       <c r="AC8" t="n">
-        <v>1532.178466672977</v>
+        <v>1608.83831216049</v>
       </c>
       <c r="AD8" t="n">
-        <v>1237963.134573255</v>
+        <v>1299902.43517033</v>
       </c>
       <c r="AE8" t="n">
-        <v>1693835.775802086</v>
+        <v>1778583.859448092</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.659319341100425e-06</v>
+        <v>2.820732906193581e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.30833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1532178.466672977</v>
+        <v>1608838.31216049</v>
       </c>
     </row>
     <row r="9">
@@ -18164,28 +18164,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1201.283692323729</v>
+        <v>1263.222992920805</v>
       </c>
       <c r="AB9" t="n">
-        <v>1643.649344733499</v>
+        <v>1728.397428379505</v>
       </c>
       <c r="AC9" t="n">
-        <v>1486.781758148477</v>
+        <v>1563.441603635991</v>
       </c>
       <c r="AD9" t="n">
-        <v>1201283.692323729</v>
+        <v>1263222.992920805</v>
       </c>
       <c r="AE9" t="n">
-        <v>1643649.344733499</v>
+        <v>1728397.428379505</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.682847442356723e-06</v>
+        <v>2.860729118971938e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.1375</v>
       </c>
       <c r="AH9" t="n">
-        <v>1486781.758148477</v>
+        <v>1563441.603635991</v>
       </c>
     </row>
     <row r="10">
@@ -18270,28 +18270,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1160.708614245129</v>
+        <v>1232.899909802931</v>
       </c>
       <c r="AB10" t="n">
-        <v>1588.132732860248</v>
+        <v>1686.908048297617</v>
       </c>
       <c r="AC10" t="n">
-        <v>1436.563573794355</v>
+        <v>1525.911911758408</v>
       </c>
       <c r="AD10" t="n">
-        <v>1160708.614245129</v>
+        <v>1232899.909802931</v>
       </c>
       <c r="AE10" t="n">
-        <v>1588132.732860248</v>
+        <v>1686908.048297617</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.702111075260317e-06</v>
+        <v>2.893476018184217e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.99861111111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>1436563.573794355</v>
+        <v>1525911.911758408</v>
       </c>
     </row>
     <row r="11">
@@ -18376,28 +18376,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1132.478760694188</v>
+        <v>1204.67005625199</v>
       </c>
       <c r="AB11" t="n">
-        <v>1549.507401818609</v>
+        <v>1648.282717255978</v>
       </c>
       <c r="AC11" t="n">
-        <v>1401.624590136337</v>
+        <v>1490.97292810039</v>
       </c>
       <c r="AD11" t="n">
-        <v>1132478.760694188</v>
+        <v>1204670.05625199</v>
       </c>
       <c r="AE11" t="n">
-        <v>1549507.401818609</v>
+        <v>1648282.717255978</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.717698442342615e-06</v>
+        <v>2.919973509149878e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.89027777777778</v>
       </c>
       <c r="AH11" t="n">
-        <v>1401624.590136337</v>
+        <v>1490972.92810039</v>
       </c>
     </row>
     <row r="12">
@@ -18482,28 +18482,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1107.968800691923</v>
+        <v>1169.993352635019</v>
       </c>
       <c r="AB12" t="n">
-        <v>1515.971793240388</v>
+        <v>1600.836521539044</v>
       </c>
       <c r="AC12" t="n">
-        <v>1371.2895729733</v>
+        <v>1448.054930711526</v>
       </c>
       <c r="AD12" t="n">
-        <v>1107968.800691922</v>
+        <v>1169993.352635019</v>
       </c>
       <c r="AE12" t="n">
-        <v>1515971.793240388</v>
+        <v>1600836.521539044</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.731227100564986e-06</v>
+        <v>2.942971331497433e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.79722222222222</v>
       </c>
       <c r="AH12" t="n">
-        <v>1371289.5729733</v>
+        <v>1448054.930711526</v>
       </c>
     </row>
     <row r="13">
@@ -18588,28 +18588,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1087.778408239219</v>
+        <v>1149.802960182316</v>
       </c>
       <c r="AB13" t="n">
-        <v>1488.346407549351</v>
+        <v>1573.211135848006</v>
       </c>
       <c r="AC13" t="n">
-        <v>1346.300715320142</v>
+        <v>1423.066073058368</v>
       </c>
       <c r="AD13" t="n">
-        <v>1087778.408239219</v>
+        <v>1149802.960182316</v>
       </c>
       <c r="AE13" t="n">
-        <v>1488346.407549351</v>
+        <v>1573211.135848006</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.740638341067505e-06</v>
+        <v>2.958969816608775e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11.73333333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>1346300.715320142</v>
+        <v>1423066.073058368</v>
       </c>
     </row>
     <row r="14">
@@ -18694,28 +18694,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1064.58745143368</v>
+        <v>1126.612003376777</v>
       </c>
       <c r="AB14" t="n">
-        <v>1456.615517335205</v>
+        <v>1541.48024563386</v>
       </c>
       <c r="AC14" t="n">
-        <v>1317.598176733451</v>
+        <v>1394.363534471677</v>
       </c>
       <c r="AD14" t="n">
-        <v>1064587.45143368</v>
+        <v>1126612.003376777</v>
       </c>
       <c r="AE14" t="n">
-        <v>1456615.517335205</v>
+        <v>1541480.245633861</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.749020227140062e-06</v>
+        <v>2.973218467411065e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>11.67777777777778</v>
       </c>
       <c r="AH14" t="n">
-        <v>1317598.176733451</v>
+        <v>1394363.534471677</v>
       </c>
     </row>
     <row r="15">
@@ -18800,28 +18800,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1045.530107980929</v>
+        <v>1107.554659924025</v>
       </c>
       <c r="AB15" t="n">
-        <v>1430.540419272495</v>
+        <v>1515.40514757115</v>
       </c>
       <c r="AC15" t="n">
-        <v>1294.011649433215</v>
+        <v>1370.777007171441</v>
       </c>
       <c r="AD15" t="n">
-        <v>1045530.107980929</v>
+        <v>1107554.659924025</v>
       </c>
       <c r="AE15" t="n">
-        <v>1430540.419272495</v>
+        <v>1515405.14757115</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.757990315744025e-06</v>
+        <v>2.988467023532813e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>11.61805555555556</v>
       </c>
       <c r="AH15" t="n">
-        <v>1294011.649433215</v>
+        <v>1370777.007171442</v>
       </c>
     </row>
     <row r="16">
@@ -18906,28 +18906,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1025.078086274993</v>
+        <v>1087.10263821809</v>
       </c>
       <c r="AB16" t="n">
-        <v>1402.557060894916</v>
+        <v>1487.421789193571</v>
       </c>
       <c r="AC16" t="n">
-        <v>1268.698983504302</v>
+        <v>1345.464341242529</v>
       </c>
       <c r="AD16" t="n">
-        <v>1025078.086274993</v>
+        <v>1087102.63821809</v>
       </c>
       <c r="AE16" t="n">
-        <v>1402557.060894916</v>
+        <v>1487421.789193571</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.764901695488063e-06</v>
+        <v>3.000215911036455e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>12</v>
+        <v>11.57222222222222</v>
       </c>
       <c r="AH16" t="n">
-        <v>1268698.983504302</v>
+        <v>1345464.341242529</v>
       </c>
     </row>
     <row r="17">
@@ -19012,28 +19012,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1017.108709535308</v>
+        <v>1079.133261478404</v>
       </c>
       <c r="AB17" t="n">
-        <v>1391.65300805559</v>
+        <v>1476.517736354245</v>
       </c>
       <c r="AC17" t="n">
-        <v>1258.835598164027</v>
+        <v>1335.600955902254</v>
       </c>
       <c r="AD17" t="n">
-        <v>1017108.709535308</v>
+        <v>1079133.261478404</v>
       </c>
       <c r="AE17" t="n">
-        <v>1391653.00805559</v>
+        <v>1476517.736354245</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.768430910676507e-06</v>
+        <v>3.006215342953208e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>12</v>
+        <v>11.55</v>
       </c>
       <c r="AH17" t="n">
-        <v>1258835.598164028</v>
+        <v>1335600.955902254</v>
       </c>
     </row>
     <row r="18">
@@ -19118,28 +19118,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1016.681352685278</v>
+        <v>1078.705904628374</v>
       </c>
       <c r="AB18" t="n">
-        <v>1391.068279559725</v>
+        <v>1475.933007858381</v>
       </c>
       <c r="AC18" t="n">
-        <v>1258.306675335137</v>
+        <v>1335.072033073363</v>
       </c>
       <c r="AD18" t="n">
-        <v>1016681.352685278</v>
+        <v>1078705.904628374</v>
       </c>
       <c r="AE18" t="n">
-        <v>1391068.279559725</v>
+        <v>1475933.00785838</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.770048467637878e-06</v>
+        <v>3.008965082581721e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>12</v>
+        <v>11.53888888888889</v>
       </c>
       <c r="AH18" t="n">
-        <v>1258306.675335136</v>
+        <v>1335072.033073363</v>
       </c>
     </row>
     <row r="19">
@@ -19224,28 +19224,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1021.532389138457</v>
+        <v>1083.556941081553</v>
       </c>
       <c r="AB19" t="n">
-        <v>1397.705681647589</v>
+        <v>1482.570409946244</v>
       </c>
       <c r="AC19" t="n">
-        <v>1264.310613083387</v>
+        <v>1341.075970821614</v>
       </c>
       <c r="AD19" t="n">
-        <v>1021532.389138457</v>
+        <v>1083556.941081553</v>
       </c>
       <c r="AE19" t="n">
-        <v>1397705.681647589</v>
+        <v>1482570.409946244</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.769607315739322e-06</v>
+        <v>3.008215153592127e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>12</v>
+        <v>11.54166666666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>1264310.613083387</v>
+        <v>1341075.970821613</v>
       </c>
     </row>
     <row r="20">
@@ -19330,28 +19330,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1025.394555478162</v>
+        <v>1087.419107421258</v>
       </c>
       <c r="AB20" t="n">
-        <v>1402.990068020326</v>
+        <v>1487.854796318982</v>
       </c>
       <c r="AC20" t="n">
-        <v>1269.090665037394</v>
+        <v>1345.85602277562</v>
       </c>
       <c r="AD20" t="n">
-        <v>1025394.555478162</v>
+        <v>1087419.107421258</v>
       </c>
       <c r="AE20" t="n">
-        <v>1402990.068020326</v>
+        <v>1487854.796318982</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.769754366372174e-06</v>
+        <v>3.008465129921991e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>12</v>
+        <v>11.54027777777778</v>
       </c>
       <c r="AH20" t="n">
-        <v>1269090.665037394</v>
+        <v>1345856.02277562</v>
       </c>
     </row>
   </sheetData>
@@ -19627,28 +19627,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2208.488730601101</v>
+        <v>2304.570194212641</v>
       </c>
       <c r="AB2" t="n">
-        <v>3021.751712855013</v>
+        <v>3153.214610183344</v>
       </c>
       <c r="AC2" t="n">
-        <v>2733.359970435181</v>
+        <v>2852.276233351827</v>
       </c>
       <c r="AD2" t="n">
-        <v>2208488.730601101</v>
+        <v>2304570.194212641</v>
       </c>
       <c r="AE2" t="n">
-        <v>3021751.712855013</v>
+        <v>3153214.610183344</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.125694593966769e-06</v>
+        <v>2.029893737226036e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.62777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>2733359.970435181</v>
+        <v>2852276.233351827</v>
       </c>
     </row>
     <row r="3">
@@ -19733,28 +19733,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1249.602061984524</v>
+        <v>1316.773835166581</v>
       </c>
       <c r="AB3" t="n">
-        <v>1709.760669759423</v>
+        <v>1801.668053236599</v>
       </c>
       <c r="AC3" t="n">
-        <v>1546.583511101754</v>
+        <v>1629.719382892692</v>
       </c>
       <c r="AD3" t="n">
-        <v>1249602.061984524</v>
+        <v>1316773.835166581</v>
       </c>
       <c r="AE3" t="n">
-        <v>1709760.669759423</v>
+        <v>1801668.0532366</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.560636513116733e-06</v>
+        <v>2.814196942084145e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.15833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1546583.511101754</v>
+        <v>1629719.382892692</v>
       </c>
     </row>
     <row r="4">
@@ -19839,28 +19839,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1045.257813215445</v>
+        <v>1112.429496888951</v>
       </c>
       <c r="AB4" t="n">
-        <v>1430.167853561562</v>
+        <v>1522.075114569191</v>
       </c>
       <c r="AC4" t="n">
-        <v>1293.674640870836</v>
+        <v>1376.810401880547</v>
       </c>
       <c r="AD4" t="n">
-        <v>1045257.813215445</v>
+        <v>1112429.496888951</v>
       </c>
       <c r="AE4" t="n">
-        <v>1430167.853561562</v>
+        <v>1522075.114569191</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.712086661994116e-06</v>
+        <v>3.087297399664584e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.90555555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>1293674.640870836</v>
+        <v>1376810.401880546</v>
       </c>
     </row>
     <row r="5">
@@ -19945,28 +19945,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>956.6757238982476</v>
+        <v>1014.239350719151</v>
       </c>
       <c r="AB5" t="n">
-        <v>1308.965930991803</v>
+        <v>1387.727024736147</v>
       </c>
       <c r="AC5" t="n">
-        <v>1184.040059683167</v>
+        <v>1255.28430518244</v>
       </c>
       <c r="AD5" t="n">
-        <v>956675.7238982476</v>
+        <v>1014239.350719151</v>
       </c>
       <c r="AE5" t="n">
-        <v>1308965.930991803</v>
+        <v>1387727.024736147</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.789561685632021e-06</v>
+        <v>3.227003200968863e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.34722222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>1184040.059683167</v>
+        <v>1255284.30518244</v>
       </c>
     </row>
     <row r="6">
@@ -20051,28 +20051,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>894.28723768891</v>
+        <v>951.8508645098132</v>
       </c>
       <c r="AB6" t="n">
-        <v>1223.603251774429</v>
+        <v>1302.364345518773</v>
       </c>
       <c r="AC6" t="n">
-        <v>1106.824274763027</v>
+        <v>1178.0685202623</v>
       </c>
       <c r="AD6" t="n">
-        <v>894287.23768891</v>
+        <v>951850.8645098131</v>
       </c>
       <c r="AE6" t="n">
-        <v>1223603.251774429</v>
+        <v>1302364.345518773</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.840151126118374e-06</v>
+        <v>3.318227933648044e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.00694444444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>1106824.274763027</v>
+        <v>1178068.5202623</v>
       </c>
     </row>
     <row r="7">
@@ -20157,28 +20157,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>841.7128871011514</v>
+        <v>899.3617652680755</v>
       </c>
       <c r="AB7" t="n">
-        <v>1151.668705883606</v>
+        <v>1230.5464442806</v>
       </c>
       <c r="AC7" t="n">
-        <v>1041.755060971255</v>
+        <v>1113.10481872124</v>
       </c>
       <c r="AD7" t="n">
-        <v>841712.8871011514</v>
+        <v>899361.7652680755</v>
       </c>
       <c r="AE7" t="n">
-        <v>1151668.705883606</v>
+        <v>1230546.4442806</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.87069569395919e-06</v>
+        <v>3.373307017529813e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.81111111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>1041755.060971255</v>
+        <v>1113104.81872124</v>
       </c>
     </row>
     <row r="8">
@@ -20263,28 +20263,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>811.4803326495644</v>
+        <v>869.1292108164884</v>
       </c>
       <c r="AB8" t="n">
-        <v>1110.303191116775</v>
+        <v>1189.180929513768</v>
       </c>
       <c r="AC8" t="n">
-        <v>1004.337412876905</v>
+        <v>1075.687170626891</v>
       </c>
       <c r="AD8" t="n">
-        <v>811480.3326495644</v>
+        <v>869129.2108164884</v>
       </c>
       <c r="AE8" t="n">
-        <v>1110303.191116775</v>
+        <v>1189180.929513769</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.889308789987188e-06</v>
+        <v>3.406870834270266e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.69444444444444</v>
       </c>
       <c r="AH8" t="n">
-        <v>1004337.412876905</v>
+        <v>1075687.170626891</v>
       </c>
     </row>
     <row r="9">
@@ -20369,28 +20369,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>810.8631717644942</v>
+        <v>868.512049931418</v>
       </c>
       <c r="AB9" t="n">
-        <v>1109.458764366605</v>
+        <v>1188.336502763599</v>
       </c>
       <c r="AC9" t="n">
-        <v>1003.573577030611</v>
+        <v>1074.923334780597</v>
       </c>
       <c r="AD9" t="n">
-        <v>810863.1717644942</v>
+        <v>868512.049931418</v>
       </c>
       <c r="AE9" t="n">
-        <v>1109458.764366605</v>
+        <v>1188336.502763599</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.891376911768077e-06</v>
+        <v>3.410600147241427e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.68194444444445</v>
       </c>
       <c r="AH9" t="n">
-        <v>1003573.577030611</v>
+        <v>1074923.334780597</v>
       </c>
     </row>
     <row r="10">
@@ -20475,28 +20475,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>814.8184383914343</v>
+        <v>872.4673165583582</v>
       </c>
       <c r="AB10" t="n">
-        <v>1114.870534659633</v>
+        <v>1193.748273056627</v>
       </c>
       <c r="AC10" t="n">
-        <v>1008.46885556234</v>
+        <v>1079.818613312326</v>
       </c>
       <c r="AD10" t="n">
-        <v>814818.4383914343</v>
+        <v>872467.3165583583</v>
       </c>
       <c r="AE10" t="n">
-        <v>1114870.534659633</v>
+        <v>1193748.273056627</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.891695084349752e-06</v>
+        <v>3.41117388769853e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.68055555555556</v>
       </c>
       <c r="AH10" t="n">
-        <v>1008468.85556234</v>
+        <v>1079818.613312326</v>
       </c>
     </row>
   </sheetData>
@@ -20772,28 +20772,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1515.570034203708</v>
+        <v>1589.583887708069</v>
       </c>
       <c r="AB2" t="n">
-        <v>2073.669783028523</v>
+        <v>2174.938802653955</v>
       </c>
       <c r="AC2" t="n">
-        <v>1875.7616493501</v>
+        <v>1967.365695874443</v>
       </c>
       <c r="AD2" t="n">
-        <v>1515570.034203708</v>
+        <v>1589583.887708069</v>
       </c>
       <c r="AE2" t="n">
-        <v>2073669.783028523</v>
+        <v>2174938.802653955</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.352733014072598e-06</v>
+        <v>2.523767412975216e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.01388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>1875761.649350099</v>
+        <v>1967365.695874443</v>
       </c>
     </row>
     <row r="3">
@@ -20878,28 +20878,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>966.3063851764323</v>
+        <v>1030.897836472174</v>
       </c>
       <c r="AB3" t="n">
-        <v>1322.143026627405</v>
+        <v>1410.519899863956</v>
       </c>
       <c r="AC3" t="n">
-        <v>1195.959551805477</v>
+        <v>1275.901860298053</v>
       </c>
       <c r="AD3" t="n">
-        <v>966306.3851764323</v>
+        <v>1030897.836472174</v>
       </c>
       <c r="AE3" t="n">
-        <v>1322143.026627405</v>
+        <v>1410519.899863956</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.731060769937812e-06</v>
+        <v>3.229606075700001e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.29583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1195959.551805477</v>
+        <v>1275901.860298053</v>
       </c>
     </row>
     <row r="4">
@@ -20984,28 +20984,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>826.7866053026235</v>
+        <v>882.2116769534605</v>
       </c>
       <c r="AB4" t="n">
-        <v>1131.245908625782</v>
+        <v>1207.080936840046</v>
       </c>
       <c r="AC4" t="n">
-        <v>1023.281386820141</v>
+        <v>1091.878826376766</v>
       </c>
       <c r="AD4" t="n">
-        <v>826786.6053026235</v>
+        <v>882211.6769534604</v>
       </c>
       <c r="AE4" t="n">
-        <v>1131245.908625782</v>
+        <v>1207080.936840046</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.862141477291901e-06</v>
+        <v>3.474160776626547e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.36111111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>1023281.386820141</v>
+        <v>1091878.826376766</v>
       </c>
     </row>
     <row r="5">
@@ -21090,28 +21090,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>747.5183125778586</v>
+        <v>812.1096743650493</v>
       </c>
       <c r="AB5" t="n">
-        <v>1022.787533449495</v>
+        <v>1111.164284216498</v>
       </c>
       <c r="AC5" t="n">
-        <v>925.1741267483933</v>
+        <v>1005.116324459743</v>
       </c>
       <c r="AD5" t="n">
-        <v>747518.3125778587</v>
+        <v>812109.6743650492</v>
       </c>
       <c r="AE5" t="n">
-        <v>1022787.533449495</v>
+        <v>1111164.284216498</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.925776106399322e-06</v>
+        <v>3.592882654193922e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.95138888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>925174.1267483933</v>
+        <v>1005116.324459743</v>
       </c>
     </row>
     <row r="6">
@@ -21196,28 +21196,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>728.4280329245225</v>
+        <v>783.9383559213799</v>
       </c>
       <c r="AB6" t="n">
-        <v>996.6673706241016</v>
+        <v>1072.619043491015</v>
       </c>
       <c r="AC6" t="n">
-        <v>901.5468356031766</v>
+        <v>970.249787410514</v>
       </c>
       <c r="AD6" t="n">
-        <v>728428.0329245225</v>
+        <v>783938.3559213799</v>
       </c>
       <c r="AE6" t="n">
-        <v>996667.3706241016</v>
+        <v>1072619.043491015</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.942844769935948e-06</v>
+        <v>3.624727324478922e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.84722222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>901546.8356031766</v>
+        <v>970249.7874105141</v>
       </c>
     </row>
     <row r="7">
@@ -21302,28 +21302,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>731.4375501741345</v>
+        <v>786.947873170992</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000.785124895551</v>
+        <v>1076.736797762464</v>
       </c>
       <c r="AC7" t="n">
-        <v>905.2715971862638</v>
+        <v>973.9745489936013</v>
       </c>
       <c r="AD7" t="n">
-        <v>731437.5501741344</v>
+        <v>786947.873170992</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000785.124895551</v>
+        <v>1076736.797762464</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.944667636915587e-06</v>
+        <v>3.628128211596737e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.83611111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>905271.5971862638</v>
+        <v>973974.5489936012</v>
       </c>
     </row>
   </sheetData>
@@ -39684,28 +39684,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1123.464073690692</v>
+        <v>1195.028062662042</v>
       </c>
       <c r="AB2" t="n">
-        <v>1537.173109360504</v>
+        <v>1635.090116251475</v>
       </c>
       <c r="AC2" t="n">
-        <v>1390.467465239146</v>
+        <v>1479.039410419825</v>
       </c>
       <c r="AD2" t="n">
-        <v>1123464.073690692</v>
+        <v>1195028.062662042</v>
       </c>
       <c r="AE2" t="n">
-        <v>1537173.109360504</v>
+        <v>1635090.116251475</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.542308241777752e-06</v>
+        <v>2.965915943292494e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.4375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1390467.465239146</v>
+        <v>1479039.410419825</v>
       </c>
     </row>
     <row r="3">
@@ -39790,28 +39790,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>766.4077756530351</v>
+        <v>829.0901933239122</v>
       </c>
       <c r="AB3" t="n">
-        <v>1048.632930173247</v>
+        <v>1134.39777938364</v>
       </c>
       <c r="AC3" t="n">
-        <v>948.5528750830729</v>
+        <v>1026.132447456548</v>
       </c>
       <c r="AD3" t="n">
-        <v>766407.775653035</v>
+        <v>829090.1933239122</v>
       </c>
       <c r="AE3" t="n">
-        <v>1048632.930173247</v>
+        <v>1134397.77938364</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.875043631050912e-06</v>
+        <v>3.605778435893443e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.69722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>948552.8750830729</v>
+        <v>1026132.447456548</v>
       </c>
     </row>
     <row r="4">
@@ -39896,28 +39896,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>678.4282763703624</v>
+        <v>732.1439609032981</v>
       </c>
       <c r="AB4" t="n">
-        <v>928.2554978731207</v>
+        <v>1001.751667219835</v>
       </c>
       <c r="AC4" t="n">
-        <v>839.664095970883</v>
+        <v>906.1458940676681</v>
       </c>
       <c r="AD4" t="n">
-        <v>678428.2763703624</v>
+        <v>732143.9609032981</v>
       </c>
       <c r="AE4" t="n">
-        <v>928255.4978731207</v>
+        <v>1001751.667219835</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.972412874279739e-06</v>
+        <v>3.793023101425302e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.07083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>839664.0959708829</v>
+        <v>906145.8940676681</v>
       </c>
     </row>
     <row r="5">
@@ -40002,28 +40002,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>677.9756851251777</v>
+        <v>731.6913696581132</v>
       </c>
       <c r="AB5" t="n">
-        <v>927.6362425645423</v>
+        <v>1001.132411911256</v>
       </c>
       <c r="AC5" t="n">
-        <v>839.1039415198251</v>
+        <v>905.5857396166103</v>
       </c>
       <c r="AD5" t="n">
-        <v>677975.6851251777</v>
+        <v>731691.3696581132</v>
       </c>
       <c r="AE5" t="n">
-        <v>927636.2425645422</v>
+        <v>1001132.411911256</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.977212766551583e-06</v>
+        <v>3.802253472261379e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.04166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>839103.941519825</v>
+        <v>905585.7396166103</v>
       </c>
     </row>
   </sheetData>
@@ -40299,28 +40299,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>589.3283472645803</v>
+        <v>639.740837273747</v>
       </c>
       <c r="AB2" t="n">
-        <v>806.3450440591402</v>
+        <v>875.3216369317763</v>
       </c>
       <c r="AC2" t="n">
-        <v>729.3886047665125</v>
+        <v>791.7821684246403</v>
       </c>
       <c r="AD2" t="n">
-        <v>589328.3472645803</v>
+        <v>639740.8372737471</v>
       </c>
       <c r="AE2" t="n">
-        <v>806345.0440591401</v>
+        <v>875321.6369317763</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.942945194959302e-06</v>
+        <v>4.007517440568057e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.15277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>729388.6047665124</v>
+        <v>791782.1684246403</v>
       </c>
     </row>
     <row r="3">
@@ -40405,28 +40405,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>563.0454371986502</v>
+        <v>621.774563594797</v>
       </c>
       <c r="AB3" t="n">
-        <v>770.3836069867772</v>
+        <v>850.739388668182</v>
       </c>
       <c r="AC3" t="n">
-        <v>696.8592767761418</v>
+        <v>769.5460154339213</v>
       </c>
       <c r="AD3" t="n">
-        <v>563045.4371986502</v>
+        <v>621774.5635947969</v>
       </c>
       <c r="AE3" t="n">
-        <v>770383.6069867772</v>
+        <v>850739.388668182</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.982319273720788e-06</v>
+        <v>4.088730388700781e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.89166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>696859.2767761417</v>
+        <v>769546.0154339212</v>
       </c>
     </row>
   </sheetData>
@@ -40702,28 +40702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3143.668217503663</v>
+        <v>3262.505588291341</v>
       </c>
       <c r="AB2" t="n">
-        <v>4301.305544042347</v>
+        <v>4463.904077488842</v>
       </c>
       <c r="AC2" t="n">
-        <v>3890.794979839029</v>
+        <v>4037.875337461859</v>
       </c>
       <c r="AD2" t="n">
-        <v>3143668.217503663</v>
+        <v>3262505.588291341</v>
       </c>
       <c r="AE2" t="n">
-        <v>4301305.544042347</v>
+        <v>4463904.077488841</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.38143773564902e-07</v>
+        <v>1.648281602468353e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.78055555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>3890794.979839029</v>
+        <v>4037875.337461859</v>
       </c>
     </row>
     <row r="3">
@@ -40808,28 +40808,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1545.927533868781</v>
+        <v>1615.299205168644</v>
       </c>
       <c r="AB3" t="n">
-        <v>2115.20625334864</v>
+        <v>2210.123634483254</v>
       </c>
       <c r="AC3" t="n">
-        <v>1913.333937239667</v>
+        <v>1999.192536736175</v>
       </c>
       <c r="AD3" t="n">
-        <v>1545927.533868782</v>
+        <v>1615299.205168644</v>
       </c>
       <c r="AE3" t="n">
-        <v>2115206.25334864</v>
+        <v>2210123.634483254</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.418063476656411e-06</v>
+        <v>2.491481589035319e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.07083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1913333.937239667</v>
+        <v>1999192.536736174</v>
       </c>
     </row>
     <row r="4">
@@ -40914,28 +40914,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1266.487532187448</v>
+        <v>1335.688521778168</v>
       </c>
       <c r="AB4" t="n">
-        <v>1732.864115025435</v>
+        <v>1827.547961915652</v>
       </c>
       <c r="AC4" t="n">
-        <v>1567.481995977467</v>
+        <v>1653.129349410096</v>
       </c>
       <c r="AD4" t="n">
-        <v>1266487.532187448</v>
+        <v>1335688.521778168</v>
       </c>
       <c r="AE4" t="n">
-        <v>1732864.115025435</v>
+        <v>1827547.961915653</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.587474054759569e-06</v>
+        <v>2.789129291892078e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.4625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1567481.995977467</v>
+        <v>1653129.349410096</v>
       </c>
     </row>
     <row r="5">
@@ -41020,28 +41020,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1140.128724467125</v>
+        <v>1209.414965403865</v>
       </c>
       <c r="AB5" t="n">
-        <v>1559.974419745324</v>
+        <v>1654.774911288192</v>
       </c>
       <c r="AC5" t="n">
-        <v>1411.092650562679</v>
+        <v>1496.84551624602</v>
       </c>
       <c r="AD5" t="n">
-        <v>1140128.724467125</v>
+        <v>1209414.965403865</v>
       </c>
       <c r="AE5" t="n">
-        <v>1559974.419745324</v>
+        <v>1654774.911288192</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.677333979929637e-06</v>
+        <v>2.947009635641712e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.74166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1411092.650562679</v>
+        <v>1496845.51624602</v>
       </c>
     </row>
     <row r="6">
@@ -41126,28 +41126,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1072.350785291723</v>
+        <v>1131.726889766827</v>
       </c>
       <c r="AB6" t="n">
-        <v>1467.237653213897</v>
+        <v>1548.47865884559</v>
       </c>
       <c r="AC6" t="n">
-        <v>1327.206550872142</v>
+        <v>1400.694028948813</v>
       </c>
       <c r="AD6" t="n">
-        <v>1072350.785291723</v>
+        <v>1131726.889766827</v>
       </c>
       <c r="AE6" t="n">
-        <v>1467237.653213897</v>
+        <v>1548478.658845589</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.731496126607486e-06</v>
+        <v>3.042170390778477e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.34305555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>1327206.550872142</v>
+        <v>1400694.028948813</v>
       </c>
     </row>
     <row r="7">
@@ -41232,28 +41232,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1025.69180237002</v>
+        <v>1085.067906845123</v>
       </c>
       <c r="AB7" t="n">
-        <v>1403.396774331373</v>
+        <v>1484.637779963066</v>
       </c>
       <c r="AC7" t="n">
-        <v>1269.45855586893</v>
+        <v>1342.946033945601</v>
       </c>
       <c r="AD7" t="n">
-        <v>1025691.802370019</v>
+        <v>1085067.906845123</v>
       </c>
       <c r="AE7" t="n">
-        <v>1403396.774331373</v>
+        <v>1484637.779963066</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.766732295895064e-06</v>
+        <v>3.104078950228248e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.09722222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>1269458.55586893</v>
+        <v>1342946.033945601</v>
       </c>
     </row>
     <row r="8">
@@ -41338,28 +41338,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>972.8205227922384</v>
+        <v>1042.021422874407</v>
       </c>
       <c r="AB8" t="n">
-        <v>1331.055957096819</v>
+        <v>1425.739681517489</v>
       </c>
       <c r="AC8" t="n">
-        <v>1204.021844700267</v>
+        <v>1289.66908735167</v>
       </c>
       <c r="AD8" t="n">
-        <v>972820.5227922384</v>
+        <v>1042021.422874407</v>
       </c>
       <c r="AE8" t="n">
-        <v>1331055.957096819</v>
+        <v>1425739.681517489</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.79473658764327e-06</v>
+        <v>3.153281386122826e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.90833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1204021.844700267</v>
+        <v>1289669.08735167</v>
       </c>
     </row>
     <row r="9">
@@ -41444,28 +41444,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>938.3157609837639</v>
+        <v>997.7771168048882</v>
       </c>
       <c r="AB9" t="n">
-        <v>1283.845019747808</v>
+        <v>1365.202670032149</v>
       </c>
       <c r="AC9" t="n">
-        <v>1161.316652950879</v>
+        <v>1234.909643278262</v>
       </c>
       <c r="AD9" t="n">
-        <v>938315.7609837638</v>
+        <v>997777.1168048882</v>
       </c>
       <c r="AE9" t="n">
-        <v>1283845.019747808</v>
+        <v>1365202.670032149</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.815970611056745e-06</v>
+        <v>3.190588727625308e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.76805555555556</v>
       </c>
       <c r="AH9" t="n">
-        <v>1161316.652950879</v>
+        <v>1234909.643278262</v>
       </c>
     </row>
     <row r="10">
@@ -41550,28 +41550,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>909.5546183876143</v>
+        <v>969.0159742087386</v>
       </c>
       <c r="AB10" t="n">
-        <v>1244.492755595696</v>
+        <v>1325.850405880037</v>
       </c>
       <c r="AC10" t="n">
-        <v>1125.720113658195</v>
+        <v>1199.313103985578</v>
       </c>
       <c r="AD10" t="n">
-        <v>909554.6183876143</v>
+        <v>969015.9742087387</v>
       </c>
       <c r="AE10" t="n">
-        <v>1244492.755595696</v>
+        <v>1325850.405880037</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.829972756930848e-06</v>
+        <v>3.215189945572597e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.67777777777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>1125720.113658195</v>
+        <v>1199313.103985578</v>
       </c>
     </row>
     <row r="11">
@@ -41656,28 +41656,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>891.8514256518757</v>
+        <v>951.312781473</v>
       </c>
       <c r="AB11" t="n">
-        <v>1220.270466284916</v>
+        <v>1301.628116569257</v>
       </c>
       <c r="AC11" t="n">
-        <v>1103.809565643039</v>
+        <v>1177.402555970422</v>
       </c>
       <c r="AD11" t="n">
-        <v>891851.4256518757</v>
+        <v>951312.781473</v>
       </c>
       <c r="AE11" t="n">
-        <v>1220270.466284916</v>
+        <v>1301628.116569257</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.839512680493424e-06</v>
+        <v>3.231951214943277e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.61666666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1103809.565643039</v>
+        <v>1177402.555970422</v>
       </c>
     </row>
     <row r="12">
@@ -41762,28 +41762,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>886.6687127989182</v>
+        <v>946.1300686200426</v>
       </c>
       <c r="AB12" t="n">
-        <v>1213.179249914345</v>
+        <v>1294.536900198687</v>
       </c>
       <c r="AC12" t="n">
-        <v>1097.395125010291</v>
+        <v>1170.988115337674</v>
       </c>
       <c r="AD12" t="n">
-        <v>886668.7127989182</v>
+        <v>946130.0686200426</v>
       </c>
       <c r="AE12" t="n">
-        <v>1213179.249914345</v>
+        <v>1294536.900198687</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.842436205456148e-06</v>
+        <v>3.237087732976228e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.6</v>
       </c>
       <c r="AH12" t="n">
-        <v>1097395.125010291</v>
+        <v>1170988.115337674</v>
       </c>
     </row>
     <row r="13">
@@ -41868,28 +41868,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>891.2231635730232</v>
+        <v>950.6845193941475</v>
       </c>
       <c r="AB13" t="n">
-        <v>1219.410850391663</v>
+        <v>1300.768500676004</v>
       </c>
       <c r="AC13" t="n">
-        <v>1103.03199028416</v>
+        <v>1176.624980611543</v>
       </c>
       <c r="AD13" t="n">
-        <v>891223.1635730232</v>
+        <v>950684.5193941476</v>
       </c>
       <c r="AE13" t="n">
-        <v>1219410.850391663</v>
+        <v>1300768.500676004</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.842436205456148e-06</v>
+        <v>3.237087732976228e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11.6</v>
       </c>
       <c r="AH13" t="n">
-        <v>1103031.99028416</v>
+        <v>1176624.980611543</v>
       </c>
     </row>
   </sheetData>
@@ -42165,28 +42165,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5084.740907281534</v>
+        <v>5238.353575812605</v>
       </c>
       <c r="AB2" t="n">
-        <v>6957.166832279904</v>
+        <v>7167.34646227677</v>
       </c>
       <c r="AC2" t="n">
-        <v>6293.184594251823</v>
+        <v>6483.304975350743</v>
       </c>
       <c r="AD2" t="n">
-        <v>5084740.907281534</v>
+        <v>5238353.575812604</v>
       </c>
       <c r="AE2" t="n">
-        <v>6957166.832279904</v>
+        <v>7167346.46227677</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.253552971450456e-07</v>
+        <v>1.24027672278611e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.39027777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>6293184.594251823</v>
+        <v>6483304.975350743</v>
       </c>
     </row>
     <row r="3">
@@ -42271,28 +42271,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1982.150952625126</v>
+        <v>2064.12895545843</v>
       </c>
       <c r="AB3" t="n">
-        <v>2712.066379710075</v>
+        <v>2824.232299800839</v>
       </c>
       <c r="AC3" t="n">
-        <v>2453.230570839615</v>
+        <v>2554.691532942774</v>
       </c>
       <c r="AD3" t="n">
-        <v>1982150.952625126</v>
+        <v>2064128.95545843</v>
       </c>
       <c r="AE3" t="n">
-        <v>2712066.379710075</v>
+        <v>2824232.299800838</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.254840940257261e-06</v>
+        <v>2.145638165359535e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.4125</v>
       </c>
       <c r="AH3" t="n">
-        <v>2453230.570839615</v>
+        <v>2554691.532942774</v>
       </c>
     </row>
     <row r="4">
@@ -42377,28 +42377,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1565.362310730418</v>
+        <v>1637.082406791306</v>
       </c>
       <c r="AB4" t="n">
-        <v>2141.797772452574</v>
+        <v>2239.928371950411</v>
       </c>
       <c r="AC4" t="n">
-        <v>1937.387599081753</v>
+        <v>2026.152751890678</v>
       </c>
       <c r="AD4" t="n">
-        <v>1565362.310730418</v>
+        <v>1637082.406791306</v>
       </c>
       <c r="AE4" t="n">
-        <v>2141797.772452574</v>
+        <v>2239928.371950411</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.446558928648214e-06</v>
+        <v>2.473454559996174e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.23611111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>1937387.599081753</v>
+        <v>2026152.751890678</v>
       </c>
     </row>
     <row r="5">
@@ -42483,28 +42483,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1394.014784256971</v>
+        <v>1465.649539463288</v>
       </c>
       <c r="AB5" t="n">
-        <v>1907.352527412246</v>
+        <v>2005.366359787885</v>
       </c>
       <c r="AC5" t="n">
-        <v>1725.317479182106</v>
+        <v>1813.977008959092</v>
       </c>
       <c r="AD5" t="n">
-        <v>1394014.784256971</v>
+        <v>1465649.539463288</v>
       </c>
       <c r="AE5" t="n">
-        <v>1907352.527412246</v>
+        <v>2005366.359787885</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.547829915555423e-06</v>
+        <v>2.646616661726124e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.30416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1725317.479182106</v>
+        <v>1813977.008959092</v>
       </c>
     </row>
     <row r="6">
@@ -42589,28 +42589,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1292.91866663542</v>
+        <v>1364.638673187758</v>
       </c>
       <c r="AB6" t="n">
-        <v>1769.028359236505</v>
+        <v>1867.158836264794</v>
       </c>
       <c r="AC6" t="n">
-        <v>1600.194775477868</v>
+        <v>1688.959817505567</v>
       </c>
       <c r="AD6" t="n">
-        <v>1292918.66663542</v>
+        <v>1364638.673187758</v>
       </c>
       <c r="AE6" t="n">
-        <v>1769028.359236505</v>
+        <v>1867158.836264794</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.610549721502348e-06</v>
+        <v>2.753860540249944e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.78611111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>1600194.775477869</v>
+        <v>1688959.817505567</v>
       </c>
     </row>
     <row r="7">
@@ -42695,28 +42695,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1234.185433433059</v>
+        <v>1295.647622721532</v>
       </c>
       <c r="AB7" t="n">
-        <v>1688.666958441658</v>
+        <v>1772.762237346568</v>
       </c>
       <c r="AC7" t="n">
-        <v>1527.502953986947</v>
+        <v>1603.572297501638</v>
       </c>
       <c r="AD7" t="n">
-        <v>1234185.433433059</v>
+        <v>1295647.622721532</v>
       </c>
       <c r="AE7" t="n">
-        <v>1688666.958441658</v>
+        <v>1772762.237346568</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.65221465169404e-06</v>
+        <v>2.825102927638107e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.46388888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>1527502.953986947</v>
+        <v>1603572.297501638</v>
       </c>
     </row>
     <row r="8">
@@ -42801,28 +42801,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1191.573850348929</v>
+        <v>1253.036039637402</v>
       </c>
       <c r="AB8" t="n">
-        <v>1630.363910575582</v>
+        <v>1714.459189480492</v>
       </c>
       <c r="AC8" t="n">
-        <v>1474.764267180368</v>
+        <v>1550.833610695058</v>
       </c>
       <c r="AD8" t="n">
-        <v>1191573.850348929</v>
+        <v>1253036.039637402</v>
       </c>
       <c r="AE8" t="n">
-        <v>1630363.910575582</v>
+        <v>1714459.189480492</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.682610775143495e-06</v>
+        <v>2.877076911319864e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.23888888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>1474764.267180368</v>
+        <v>1550833.610695058</v>
       </c>
     </row>
     <row r="9">
@@ -42907,28 +42907,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1154.805173718948</v>
+        <v>1216.267363007421</v>
       </c>
       <c r="AB9" t="n">
-        <v>1580.055385090912</v>
+        <v>1664.150663995822</v>
       </c>
       <c r="AC9" t="n">
-        <v>1429.257116759496</v>
+        <v>1505.326460274187</v>
       </c>
       <c r="AD9" t="n">
-        <v>1154805.173718948</v>
+        <v>1216267.363007421</v>
       </c>
       <c r="AE9" t="n">
-        <v>1580055.385090912</v>
+        <v>1664150.663995822</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.706482852584287e-06</v>
+        <v>2.917895503382121e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.06805555555555</v>
       </c>
       <c r="AH9" t="n">
-        <v>1429257.116759496</v>
+        <v>1505326.460274187</v>
       </c>
     </row>
     <row r="10">
@@ -43013,28 +43013,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1111.942386027801</v>
+        <v>1183.577051725567</v>
       </c>
       <c r="AB10" t="n">
-        <v>1521.408627999151</v>
+        <v>1619.422337905242</v>
       </c>
       <c r="AC10" t="n">
-        <v>1376.207523853332</v>
+        <v>1464.866942849091</v>
       </c>
       <c r="AD10" t="n">
-        <v>1111942.386027801</v>
+        <v>1183577.051725567</v>
       </c>
       <c r="AE10" t="n">
-        <v>1521408.627999151</v>
+        <v>1619422.337905242</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.725165347972732e-06</v>
+        <v>2.949840488474322e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.9375</v>
       </c>
       <c r="AH10" t="n">
-        <v>1376207.523853332</v>
+        <v>1464866.942849091</v>
       </c>
     </row>
     <row r="11">
@@ -43119,28 +43119,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1087.111638807204</v>
+        <v>1148.659079441698</v>
       </c>
       <c r="AB11" t="n">
-        <v>1487.434104196676</v>
+        <v>1571.646027754236</v>
       </c>
       <c r="AC11" t="n">
-        <v>1345.475480919021</v>
+        <v>1421.650336684424</v>
       </c>
       <c r="AD11" t="n">
-        <v>1087111.638807204</v>
+        <v>1148659.079441698</v>
       </c>
       <c r="AE11" t="n">
-        <v>1487434.104196676</v>
+        <v>1571646.027754236</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.739399630173453e-06</v>
+        <v>2.974179524735048e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.83888888888889</v>
       </c>
       <c r="AH11" t="n">
-        <v>1345475.480919021</v>
+        <v>1421650.336684424</v>
       </c>
     </row>
     <row r="12">
@@ -43225,28 +43225,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1061.367460027865</v>
+        <v>1122.914900662359</v>
       </c>
       <c r="AB12" t="n">
-        <v>1452.209783037774</v>
+        <v>1536.421706595334</v>
       </c>
       <c r="AC12" t="n">
-        <v>1313.61291953388</v>
+        <v>1389.787775299283</v>
       </c>
       <c r="AD12" t="n">
-        <v>1061367.460027866</v>
+        <v>1122914.900662359</v>
       </c>
       <c r="AE12" t="n">
-        <v>1452209.783037774</v>
+        <v>1536421.706595334</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.753485638601249e-06</v>
+        <v>2.998265029368057e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.74444444444445</v>
       </c>
       <c r="AH12" t="n">
-        <v>1313612.91953388</v>
+        <v>1389787.775299283</v>
       </c>
     </row>
     <row r="13">
@@ -43331,28 +43331,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1037.445106117547</v>
+        <v>1098.992546752041</v>
       </c>
       <c r="AB13" t="n">
-        <v>1419.478163037907</v>
+        <v>1503.690086595467</v>
       </c>
       <c r="AC13" t="n">
-        <v>1284.005159407683</v>
+        <v>1360.180015173086</v>
       </c>
       <c r="AD13" t="n">
-        <v>1037445.106117547</v>
+        <v>1098992.546752041</v>
       </c>
       <c r="AE13" t="n">
-        <v>1419478.163037907</v>
+        <v>1503690.086595467</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.763419981387168e-06</v>
+        <v>3.01525164842502e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11.67777777777778</v>
       </c>
       <c r="AH13" t="n">
-        <v>1284005.159407683</v>
+        <v>1360180.015173086</v>
       </c>
     </row>
     <row r="14">
@@ -43437,28 +43437,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1016.81795384983</v>
+        <v>1078.365394484323</v>
       </c>
       <c r="AB14" t="n">
-        <v>1391.255183299483</v>
+        <v>1475.467106857043</v>
       </c>
       <c r="AC14" t="n">
-        <v>1258.475741244293</v>
+        <v>1334.650597009696</v>
       </c>
       <c r="AD14" t="n">
-        <v>1016817.95384983</v>
+        <v>1078365.394484323</v>
       </c>
       <c r="AE14" t="n">
-        <v>1391255.183299483</v>
+        <v>1475467.106857043</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.771278491352149e-06</v>
+        <v>3.028688824693963e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>11.62638888888889</v>
       </c>
       <c r="AH14" t="n">
-        <v>1258475.741244293</v>
+        <v>1334650.597009696</v>
       </c>
     </row>
     <row r="15">
@@ -43543,28 +43543,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000.826682653517</v>
+        <v>1062.374123288011</v>
       </c>
       <c r="AB15" t="n">
-        <v>1369.375220563594</v>
+        <v>1453.587144121153</v>
       </c>
       <c r="AC15" t="n">
-        <v>1238.683971443197</v>
+        <v>1314.8588272086</v>
       </c>
       <c r="AD15" t="n">
-        <v>1000826.682653517</v>
+        <v>1062374.123288011</v>
       </c>
       <c r="AE15" t="n">
-        <v>1369375.220563594</v>
+        <v>1453587.144121154</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.778840453771282e-06</v>
+        <v>3.041618937707473e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>11.57638888888889</v>
       </c>
       <c r="AH15" t="n">
-        <v>1238683.971443197</v>
+        <v>1314858.8272086</v>
       </c>
     </row>
     <row r="16">
@@ -43649,28 +43649,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>989.7875274406931</v>
+        <v>1051.334968075187</v>
       </c>
       <c r="AB16" t="n">
-        <v>1354.270961388252</v>
+        <v>1438.482884945811</v>
       </c>
       <c r="AC16" t="n">
-        <v>1225.021241564588</v>
+        <v>1301.196097329992</v>
       </c>
       <c r="AD16" t="n">
-        <v>989787.5274406931</v>
+        <v>1051334.968075187</v>
       </c>
       <c r="AE16" t="n">
-        <v>1354270.961388252</v>
+        <v>1438482.884945811</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.781805929229766e-06</v>
+        <v>3.046689570261791e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>12</v>
+        <v>11.55833333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>1225021.241564588</v>
+        <v>1301196.097329991</v>
       </c>
     </row>
     <row r="17">
@@ -43755,28 +43755,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>988.7934180389052</v>
+        <v>1050.340858673399</v>
       </c>
       <c r="AB17" t="n">
-        <v>1352.910777047714</v>
+        <v>1437.122700605273</v>
       </c>
       <c r="AC17" t="n">
-        <v>1223.790871308481</v>
+        <v>1299.965727073884</v>
       </c>
       <c r="AD17" t="n">
-        <v>988793.4180389052</v>
+        <v>1050340.858673399</v>
       </c>
       <c r="AE17" t="n">
-        <v>1352910.777047714</v>
+        <v>1437122.700605273</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.783436940731931e-06</v>
+        <v>3.049478418166666e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>12</v>
+        <v>11.54722222222222</v>
       </c>
       <c r="AH17" t="n">
-        <v>1223790.871308481</v>
+        <v>1299965.727073884</v>
       </c>
     </row>
     <row r="18">
@@ -43861,28 +43861,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>993.2725986404892</v>
+        <v>1054.820039274982</v>
       </c>
       <c r="AB18" t="n">
-        <v>1359.039389554302</v>
+        <v>1443.251313111862</v>
       </c>
       <c r="AC18" t="n">
-        <v>1229.334577639002</v>
+        <v>1305.509433404405</v>
       </c>
       <c r="AD18" t="n">
-        <v>993272.5986404892</v>
+        <v>1054820.039274982</v>
       </c>
       <c r="AE18" t="n">
-        <v>1359039.389554302</v>
+        <v>1443251.313111862</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.783288666959007e-06</v>
+        <v>3.04922488653895e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>12</v>
+        <v>11.54722222222222</v>
       </c>
       <c r="AH18" t="n">
-        <v>1229334.577639002</v>
+        <v>1305509.433404405</v>
       </c>
     </row>
     <row r="19">
@@ -43967,28 +43967,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>997.6525902367441</v>
+        <v>1059.200030871237</v>
       </c>
       <c r="AB19" t="n">
-        <v>1365.032287287891</v>
+        <v>1449.24421084545</v>
       </c>
       <c r="AC19" t="n">
-        <v>1234.755521623981</v>
+        <v>1310.930377389384</v>
       </c>
       <c r="AD19" t="n">
-        <v>997652.5902367441</v>
+        <v>1059200.030871237</v>
       </c>
       <c r="AE19" t="n">
-        <v>1365032.28728789</v>
+        <v>1449244.21084545</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.783288666959007e-06</v>
+        <v>3.04922488653895e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>12</v>
+        <v>11.54861111111111</v>
       </c>
       <c r="AH19" t="n">
-        <v>1234755.521623981</v>
+        <v>1310930.377389384</v>
       </c>
     </row>
   </sheetData>
@@ -44264,28 +44264,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>513.0333523651786</v>
+        <v>569.9988516324095</v>
       </c>
       <c r="AB2" t="n">
-        <v>701.9548661401573</v>
+        <v>779.8975753780414</v>
       </c>
       <c r="AC2" t="n">
-        <v>634.9612789155821</v>
+        <v>705.4652453770822</v>
       </c>
       <c r="AD2" t="n">
-        <v>513033.3523651787</v>
+        <v>569998.8516324095</v>
       </c>
       <c r="AE2" t="n">
-        <v>701954.8661401572</v>
+        <v>779897.5753780415</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.912661522134147e-06</v>
+        <v>4.099714595586495e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.83611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>634961.2789155821</v>
+        <v>705465.2453770821</v>
       </c>
     </row>
   </sheetData>
@@ -44561,28 +44561,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1720.207749327378</v>
+        <v>1813.819507369029</v>
       </c>
       <c r="AB2" t="n">
-        <v>2353.664132839556</v>
+        <v>2481.747870051437</v>
       </c>
       <c r="AC2" t="n">
-        <v>2129.033731389707</v>
+        <v>2244.893336488739</v>
       </c>
       <c r="AD2" t="n">
-        <v>1720207.749327378</v>
+        <v>1813819.507369029</v>
       </c>
       <c r="AE2" t="n">
-        <v>2353664.132839556</v>
+        <v>2481747.870051437</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.271778411417949e-06</v>
+        <v>2.343165922639343e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.83472222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>2129033.731389706</v>
+        <v>2244893.336488739</v>
       </c>
     </row>
     <row r="3">
@@ -44667,28 +44667,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1055.509607174896</v>
+        <v>1121.157315000452</v>
       </c>
       <c r="AB3" t="n">
-        <v>1444.194810334112</v>
+        <v>1534.016900353506</v>
       </c>
       <c r="AC3" t="n">
-        <v>1306.362884575971</v>
+        <v>1387.612480390008</v>
       </c>
       <c r="AD3" t="n">
-        <v>1055509.607174896</v>
+        <v>1121157.315000452</v>
       </c>
       <c r="AE3" t="n">
-        <v>1444194.810334112</v>
+        <v>1534016.900353506</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.671536186347473e-06</v>
+        <v>3.079692653330292e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.56805555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>1306362.884575971</v>
+        <v>1387612.480390008</v>
       </c>
     </row>
     <row r="4">
@@ -44773,28 +44773,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>901.5330432772039</v>
+        <v>967.095410248188</v>
       </c>
       <c r="AB4" t="n">
-        <v>1233.517282642714</v>
+        <v>1323.22260553991</v>
       </c>
       <c r="AC4" t="n">
-        <v>1115.792124439673</v>
+        <v>1196.936097221771</v>
       </c>
       <c r="AD4" t="n">
-        <v>901533.0432772039</v>
+        <v>967095.4102481881</v>
       </c>
       <c r="AE4" t="n">
-        <v>1233517.282642714</v>
+        <v>1323222.60553991</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.808544672117845e-06</v>
+        <v>3.332121545098963e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.54027777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>1115792.124439673</v>
+        <v>1196936.097221771</v>
       </c>
     </row>
     <row r="5">
@@ -44879,28 +44879,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>824.7016499135481</v>
+        <v>880.8858624180037</v>
       </c>
       <c r="AB5" t="n">
-        <v>1128.393180680709</v>
+        <v>1205.266898901825</v>
       </c>
       <c r="AC5" t="n">
-        <v>1020.700919226317</v>
+        <v>1090.237917673351</v>
       </c>
       <c r="AD5" t="n">
-        <v>824701.649913548</v>
+        <v>880885.8624180037</v>
       </c>
       <c r="AE5" t="n">
-        <v>1128393.180680709</v>
+        <v>1205266.898901825</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.877620464109344e-06</v>
+        <v>3.459389031652178e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.07916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1020700.919226317</v>
+        <v>1090237.917673351</v>
       </c>
     </row>
     <row r="6">
@@ -44985,28 +44985,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>766.4190157630308</v>
+        <v>822.6884796135071</v>
       </c>
       <c r="AB6" t="n">
-        <v>1048.648309387622</v>
+        <v>1125.638672261388</v>
       </c>
       <c r="AC6" t="n">
-        <v>948.5667865268126</v>
+        <v>1018.209297224559</v>
       </c>
       <c r="AD6" t="n">
-        <v>766419.0157630307</v>
+        <v>822688.4796135071</v>
       </c>
       <c r="AE6" t="n">
-        <v>1048648.309387622</v>
+        <v>1125638.672261388</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.918282100529872e-06</v>
+        <v>3.53430535352393e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.82361111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>948566.7865268126</v>
+        <v>1018209.297224559</v>
       </c>
     </row>
     <row r="7">
@@ -45091,28 +45091,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>755.1139208102869</v>
+        <v>811.3833846607633</v>
       </c>
       <c r="AB7" t="n">
-        <v>1033.180179727688</v>
+        <v>1110.170542601454</v>
       </c>
       <c r="AC7" t="n">
-        <v>934.5749134519667</v>
+        <v>1004.217424149713</v>
       </c>
       <c r="AD7" t="n">
-        <v>755113.9208102869</v>
+        <v>811383.3846607633</v>
       </c>
       <c r="AE7" t="n">
-        <v>1033180.179727688</v>
+        <v>1110170.542601454</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.925630589039606e-06</v>
+        <v>3.547844447838102e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.77777777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>934574.9134519667</v>
+        <v>1004217.424149713</v>
       </c>
     </row>
     <row r="8">
@@ -45197,28 +45197,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>759.573816297998</v>
+        <v>815.8432801484745</v>
       </c>
       <c r="AB8" t="n">
-        <v>1039.282405490677</v>
+        <v>1116.272768364443</v>
       </c>
       <c r="AC8" t="n">
-        <v>940.0947513526636</v>
+        <v>1009.73726205041</v>
       </c>
       <c r="AD8" t="n">
-        <v>759573.816297998</v>
+        <v>815843.2801484745</v>
       </c>
       <c r="AE8" t="n">
-        <v>1039282.405490677</v>
+        <v>1116272.768364443</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.925630589039606e-06</v>
+        <v>3.547844447838102e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.77777777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>940094.7513526636</v>
+        <v>1009737.26205041</v>
       </c>
     </row>
   </sheetData>
@@ -45494,28 +45494,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2488.193899642358</v>
+        <v>2594.959965437712</v>
       </c>
       <c r="AB2" t="n">
-        <v>3404.456664858446</v>
+        <v>3550.538706266054</v>
       </c>
       <c r="AC2" t="n">
-        <v>3079.540098949166</v>
+        <v>3211.680275352259</v>
       </c>
       <c r="AD2" t="n">
-        <v>2488193.899642358</v>
+        <v>2594959.965437712</v>
       </c>
       <c r="AE2" t="n">
-        <v>3404456.664858446</v>
+        <v>3550538.706266054</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.059680672638955e-06</v>
+        <v>1.893042187996046e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.60694444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>3079540.098949166</v>
+        <v>3211680.275352259</v>
       </c>
     </row>
     <row r="3">
@@ -45600,28 +45600,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1343.03960608335</v>
+        <v>1410.950704423646</v>
       </c>
       <c r="AB3" t="n">
-        <v>1837.606039768953</v>
+        <v>1930.525000544356</v>
       </c>
       <c r="AC3" t="n">
-        <v>1662.227498429679</v>
+        <v>1746.278404001258</v>
       </c>
       <c r="AD3" t="n">
-        <v>1343039.60608335</v>
+        <v>1410950.704423646</v>
       </c>
       <c r="AE3" t="n">
-        <v>1837606.039768953</v>
+        <v>1930525.000544356</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.510438015139828e-06</v>
+        <v>2.698287284878043e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.45694444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>1662227.498429679</v>
+        <v>1746278.404001258</v>
       </c>
     </row>
     <row r="4">
@@ -45706,28 +45706,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1124.545528666524</v>
+        <v>1182.828203620489</v>
       </c>
       <c r="AB4" t="n">
-        <v>1538.652803768863</v>
+        <v>1618.397730891028</v>
       </c>
       <c r="AC4" t="n">
-        <v>1391.805939689935</v>
+        <v>1463.940122890268</v>
       </c>
       <c r="AD4" t="n">
-        <v>1124545.528666524</v>
+        <v>1182828.203620489</v>
       </c>
       <c r="AE4" t="n">
-        <v>1538652.803768863</v>
+        <v>1618397.730891028</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.668604002777037e-06</v>
+        <v>2.980839279110094e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.08611111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>1391805.939689935</v>
+        <v>1463940.122890268</v>
       </c>
     </row>
     <row r="5">
@@ -45812,28 +45812,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1018.047342361005</v>
+        <v>1076.244676460399</v>
       </c>
       <c r="AB5" t="n">
-        <v>1392.937286897266</v>
+        <v>1472.565446897233</v>
       </c>
       <c r="AC5" t="n">
-        <v>1259.997307235551</v>
+        <v>1332.025867403946</v>
       </c>
       <c r="AD5" t="n">
-        <v>1018047.342361005</v>
+        <v>1076244.676460399</v>
       </c>
       <c r="AE5" t="n">
-        <v>1392937.286897267</v>
+        <v>1472565.446897233</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.750831449630178e-06</v>
+        <v>3.127732612095543e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.47222222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>1259997.307235552</v>
+        <v>1332025.867403946</v>
       </c>
     </row>
     <row r="6">
@@ -45918,28 +45918,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>957.9015519846891</v>
+        <v>1016.098886084083</v>
       </c>
       <c r="AB6" t="n">
-        <v>1310.643163059391</v>
+        <v>1390.271323059357</v>
       </c>
       <c r="AC6" t="n">
-        <v>1185.557219076234</v>
+        <v>1257.585779244629</v>
       </c>
       <c r="AD6" t="n">
-        <v>957901.5519846892</v>
+        <v>1016098.886084083</v>
       </c>
       <c r="AE6" t="n">
-        <v>1310643.163059391</v>
+        <v>1390271.323059357</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.799727694317228e-06</v>
+        <v>3.215082184865094e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.13333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1185557.219076234</v>
+        <v>1257585.779244629</v>
       </c>
     </row>
     <row r="7">
@@ -46024,28 +46024,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>901.0884706142079</v>
+        <v>968.9141385913813</v>
       </c>
       <c r="AB7" t="n">
-        <v>1232.908998712042</v>
+        <v>1325.711069895699</v>
       </c>
       <c r="AC7" t="n">
-        <v>1115.241894273612</v>
+        <v>1199.187066032025</v>
       </c>
       <c r="AD7" t="n">
-        <v>901088.4706142079</v>
+        <v>968914.1385913813</v>
       </c>
       <c r="AE7" t="n">
-        <v>1232908.998712042</v>
+        <v>1325711.069895699</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.834316677697135e-06</v>
+        <v>3.276872879428764e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.90416666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1115241.894273612</v>
+        <v>1199187.066032025</v>
       </c>
     </row>
     <row r="8">
@@ -46130,28 +46130,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>864.4355844449426</v>
+        <v>922.718169890357</v>
       </c>
       <c r="AB8" t="n">
-        <v>1182.758902844039</v>
+        <v>1262.503707496655</v>
       </c>
       <c r="AC8" t="n">
-        <v>1069.878053169149</v>
+        <v>1142.012125588256</v>
       </c>
       <c r="AD8" t="n">
-        <v>864435.5844449427</v>
+        <v>922718.1698903569</v>
       </c>
       <c r="AE8" t="n">
-        <v>1182758.902844039</v>
+        <v>1262503.707496655</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.857271184849254e-06</v>
+        <v>3.317879431275562e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.75694444444444</v>
       </c>
       <c r="AH8" t="n">
-        <v>1069878.053169149</v>
+        <v>1142012.125588256</v>
       </c>
     </row>
     <row r="9">
@@ -46236,28 +46236,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>838.5412266660894</v>
+        <v>896.8238121115037</v>
       </c>
       <c r="AB9" t="n">
-        <v>1147.329100152571</v>
+        <v>1227.073904805187</v>
       </c>
       <c r="AC9" t="n">
-        <v>1037.829621120515</v>
+        <v>1109.963693539622</v>
       </c>
       <c r="AD9" t="n">
-        <v>838541.2266660894</v>
+        <v>896823.8121115037</v>
       </c>
       <c r="AE9" t="n">
-        <v>1147329.100152571</v>
+        <v>1227073.904805187</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.870792332897763e-06</v>
+        <v>3.342033975514087e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.67222222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>1037829.621120515</v>
+        <v>1109963.693539622</v>
       </c>
     </row>
     <row r="10">
@@ -46342,28 +46342,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>836.3288518288284</v>
+        <v>894.6114372742428</v>
       </c>
       <c r="AB10" t="n">
-        <v>1144.302031297141</v>
+        <v>1224.046835949758</v>
       </c>
       <c r="AC10" t="n">
-        <v>1035.091451468129</v>
+        <v>1107.225523887236</v>
       </c>
       <c r="AD10" t="n">
-        <v>836328.8518288285</v>
+        <v>894611.4372742428</v>
       </c>
       <c r="AE10" t="n">
-        <v>1144302.031297141</v>
+        <v>1224046.835949758</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.8739367859323e-06</v>
+        <v>3.347651311383512e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.65277777777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>1035091.45146813</v>
+        <v>1107225.523887236</v>
       </c>
     </row>
     <row r="11">
@@ -46448,28 +46448,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>840.339436949406</v>
+        <v>898.6220223948203</v>
       </c>
       <c r="AB11" t="n">
-        <v>1149.789490793644</v>
+        <v>1229.53429544626</v>
       </c>
       <c r="AC11" t="n">
-        <v>1040.055195531983</v>
+        <v>1112.18926795109</v>
       </c>
       <c r="AD11" t="n">
-        <v>840339.4369494061</v>
+        <v>898622.0223948203</v>
       </c>
       <c r="AE11" t="n">
-        <v>1149789.490793644</v>
+        <v>1229534.29544626</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.8739367859323e-06</v>
+        <v>3.347651311383512e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.65277777777778</v>
       </c>
       <c r="AH11" t="n">
-        <v>1040055.195531983</v>
+        <v>1112189.26795109</v>
       </c>
     </row>
   </sheetData>
